--- a/example/formulation_2/input/PySedSim_Input_File - Sambor_EA_formulation_2_parallel.xlsx
+++ b/example/formulation_2/input/PySedSim_Input_File - Sambor_EA_formulation_2_parallel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="2040" windowWidth="7140" windowHeight="3525" tabRatio="848" firstSheet="9" activeTab="20"/>
+    <workbookView xWindow="4860" yWindow="2040" windowWidth="7140" windowHeight="3525" tabRatio="848" firstSheet="12" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Simulation Specifications" sheetId="54" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Sluicing" sheetId="74" r:id="rId10"/>
     <sheet name="Tailwater Rating Curve" sheetId="80" r:id="rId11"/>
     <sheet name="DPS" sheetId="103" r:id="rId12"/>
-    <sheet name="Reevaluation" sheetId="112" r:id="rId13"/>
+    <sheet name="Optimization" sheetId="104" r:id="rId13"/>
     <sheet name="Max Reservoir WSE" sheetId="105" r:id="rId14"/>
     <sheet name="Junction Flow Distribution" sheetId="90" r:id="rId15"/>
     <sheet name="Reservoir Natural Bypass" sheetId="106" r:id="rId16"/>
@@ -27,15 +27,15 @@
     <sheet name="Tradeoff Plotting" sheetId="117" r:id="rId18"/>
     <sheet name="Parallel Axis Plotting" sheetId="115" r:id="rId19"/>
     <sheet name="Export Preferences" sheetId="122" r:id="rId20"/>
-    <sheet name="Optimization" sheetId="104" r:id="rId21"/>
+    <sheet name="Reevaluation" sheetId="123" r:id="rId21"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId22"/>
   </externalReferences>
   <definedNames>
-    <definedName name="IncSedLoadCalibrationOptions" localSheetId="12">[1]!Table1[Incremental Sediment Load Calibration Options]</definedName>
+    <definedName name="IncSedLoadCalibrationOptions" localSheetId="20">[1]!Table1[Incremental Sediment Load Calibration Options]</definedName>
     <definedName name="IncSedLoadCalibrationOptions">[1]!Table1[Incremental Sediment Load Calibration Options]</definedName>
-    <definedName name="Sediment_discharge_from_reaches__channels___calibration_preferences_for_determining_coefficient_a__in_aQb" localSheetId="12">[1]!Table2[[#All],[Sediment discharge from reaches (channels): calibration preferences for determining coefficient a (in aQb)]]</definedName>
+    <definedName name="Sediment_discharge_from_reaches__channels___calibration_preferences_for_determining_coefficient_a__in_aQb" localSheetId="20">[1]!Table2[[#All],[Sediment discharge from reaches (channels): calibration preferences for determining coefficient a (in aQb)]]</definedName>
     <definedName name="Sediment_discharge_from_reaches__channels___calibration_preferences_for_determining_coefficient_a__in_aQb">[1]!Table2[[#All],[Sediment discharge from reaches (channels): calibration preferences for determining coefficient a (in aQb)]]</definedName>
     <definedName name="solver_adj" localSheetId="4" hidden="1">'E-V-A-S'!#REF!</definedName>
     <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="342">
   <si>
     <t/>
   </si>
@@ -995,491 +995,507 @@
     <t>Borg runtime dynamics interval</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Critical Residence Time</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>Col 19</t>
+  </si>
+  <si>
+    <t>Flow Threshold</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Flushed Load (10^6 kg)</t>
+  </si>
+  <si>
+    <t>res_flushed_load</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Q_out_under_thold</t>
+  </si>
+  <si>
+    <t>Velocity Threshold Wet</t>
+  </si>
+  <si>
+    <t>Velocity Threshold Dry</t>
+  </si>
+  <si>
+    <t>Anabranch Dry Flow (m^3 s^-1)</t>
+  </si>
+  <si>
+    <t>Ann Energy Production (GWh yr^-1)</t>
+  </si>
+  <si>
+    <t>Dry Energy Production (GWh yr^-1)</t>
+  </si>
+  <si>
+    <t>Hydropower_avg_MWH_under_thold</t>
+  </si>
+  <si>
+    <t>Number of variables to reevaluate</t>
+  </si>
+  <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t>Plot Type</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>Hydropower_avg_MWH_over_thold</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>Q_out_over_thold</t>
+  </si>
+  <si>
+    <t>Q_out</t>
+  </si>
+  <si>
+    <t>Stochastic or Deterministic</t>
+  </si>
+  <si>
+    <t>Number of reevaluations</t>
+  </si>
+  <si>
+    <t>Numbers of policies to reevaluate</t>
+  </si>
+  <si>
+    <t>Folder name for output</t>
+  </si>
+  <si>
+    <t>Axis Range</t>
+  </si>
+  <si>
+    <t>Plot Title</t>
+  </si>
+  <si>
+    <t>CDF</t>
+  </si>
+  <si>
+    <t>0, 1, 0, 1</t>
+  </si>
+  <si>
+    <t>Energy Production - Dry (GWh yr^-1)</t>
+  </si>
+  <si>
+    <t>Energy Production - Dry</t>
+  </si>
+  <si>
+    <t>Energy Production - Wet (GWh yr^-1)</t>
+  </si>
+  <si>
+    <t>Energy Production - Wet</t>
+  </si>
+  <si>
+    <t>Number of Processors</t>
+  </si>
+  <si>
+    <t>Plot Name</t>
+  </si>
+  <si>
+    <t>Plot 1</t>
+  </si>
+  <si>
+    <t>Subplot number</t>
+  </si>
+  <si>
+    <t>Subplot title</t>
+  </si>
+  <si>
+    <t>Deterministic Formulation</t>
+  </si>
+  <si>
+    <t>x-axis objective</t>
+  </si>
+  <si>
+    <t>Axis Title</t>
+  </si>
+  <si>
+    <t>y-axis objective</t>
+  </si>
+  <si>
+    <t>0, 5500</t>
+  </si>
+  <si>
+    <t>Annual Energy \n (GWh/yr)</t>
+  </si>
+  <si>
+    <t>Dry Energy \n (GWh/yr)</t>
+  </si>
+  <si>
+    <t>color axis objective</t>
+  </si>
+  <si>
+    <t>Anabranch Dry Flow (m^3/s)</t>
+  </si>
+  <si>
+    <t>z-axis objective</t>
+  </si>
+  <si>
+    <t>size objective</t>
+  </si>
+  <si>
+    <t>Par Axis Plot 1</t>
+  </si>
+  <si>
+    <t>Number of plots in sheet</t>
+  </si>
+  <si>
+    <t>Number of axes</t>
+  </si>
+  <si>
+    <t>Axis 1</t>
+  </si>
+  <si>
+    <t>Axis 2</t>
+  </si>
+  <si>
+    <t>Axis 3</t>
+  </si>
+  <si>
+    <t>Axis 4</t>
+  </si>
+  <si>
+    <t>Axis 5</t>
+  </si>
+  <si>
+    <t>Axis 0</t>
+  </si>
+  <si>
+    <t>Flushed Load \n (10^6 kg)</t>
+  </si>
+  <si>
+    <t>Velocity Threshold \n Wet (%)</t>
+  </si>
+  <si>
+    <t>Velocity Threshold \n Dry (%)</t>
+  </si>
+  <si>
+    <t>Brushed range</t>
+  </si>
+  <si>
+    <t>Axis Number of Color Bar</t>
+  </si>
+  <si>
+    <t>Par Axis Plot 2</t>
+  </si>
+  <si>
+    <t>4900, 5200, 0, 5200</t>
+  </si>
+  <si>
+    <t>0, 100, 94, 96</t>
+  </si>
+  <si>
+    <t>0, 100, 93, 97</t>
+  </si>
+  <si>
+    <t>Par Axis Plot 3</t>
+  </si>
+  <si>
+    <t>Number of plots</t>
+  </si>
+  <si>
+    <t>Policies to Highlight</t>
+  </si>
+  <si>
+    <t>0, 100, 91.921, 91.922, 96.71623, 96.71624</t>
+  </si>
+  <si>
+    <t>0, 100, 61.681, 61.682, 96.20382, 96.20383</t>
+  </si>
+  <si>
+    <t>4900, 5200, 0, 5200, 0, 5200</t>
+  </si>
+  <si>
+    <t>Velocity \n Threshold \n Dry (%)</t>
+  </si>
+  <si>
+    <t>Velocity \n Threshold \n Wet (%)</t>
+  </si>
+  <si>
+    <t>Anabranch \n Dry Flow (m^3/s)</t>
+  </si>
+  <si>
+    <t>No policies plotted</t>
+  </si>
+  <si>
+    <t>105, 106</t>
+  </si>
+  <si>
+    <t>Energy policy brushed</t>
+  </si>
+  <si>
+    <t>Energy and larvae policies brushed</t>
+  </si>
+  <si>
+    <t>All 3 selected policies brushed</t>
+  </si>
+  <si>
+    <t>4900, 5200</t>
+  </si>
+  <si>
+    <t>0, 100, 96.71623, 96.71624</t>
+  </si>
+  <si>
+    <t>0, 100, 96.20382, 96.20383</t>
+  </si>
+  <si>
+    <t>All policies in GRAY</t>
+  </si>
+  <si>
+    <t>All policies in COLOR</t>
+  </si>
+  <si>
+    <t>Colormap name (e.g., jet_r)</t>
+  </si>
+  <si>
+    <t>Min/Max Range</t>
+  </si>
+  <si>
+    <t>477.79, 2394.92</t>
+  </si>
+  <si>
+    <t>Policy Labels</t>
+  </si>
+  <si>
+    <t>Main Figure size (inches, W x H)</t>
+  </si>
+  <si>
+    <t>E, C, L</t>
+  </si>
+  <si>
+    <t>6.5, 2</t>
+  </si>
+  <si>
+    <t>Include color bar (main figure)?</t>
+  </si>
+  <si>
+    <t>Plot ideal point?</t>
+  </si>
+  <si>
+    <t>0, 105</t>
+  </si>
+  <si>
+    <t>Subplots layout: rows x cols</t>
+  </si>
+  <si>
+    <t>3, 6.5</t>
+  </si>
+  <si>
+    <t>Preference Arrows?</t>
+  </si>
+  <si>
+    <t>1, 3</t>
+  </si>
+  <si>
+    <t>jet_r</t>
+  </si>
+  <si>
+    <t>Q_jct(t-1)</t>
+  </si>
+  <si>
+    <t>Storage_Target_Release_Goal</t>
+  </si>
+  <si>
+    <t>All policies in COLOR, LIGHT</t>
+  </si>
+  <si>
+    <t>Main fig</t>
+  </si>
+  <si>
+    <t>Max, max</t>
+  </si>
+  <si>
+    <t>Max, Max, min, max</t>
+  </si>
+  <si>
+    <t>max, max, min, max, min, max</t>
+  </si>
+  <si>
+    <t>min, max, 60, 65, 95, 96</t>
+  </si>
+  <si>
+    <t>min, max, 94, 96</t>
+  </si>
+  <si>
+    <t>min, max, 88, 90, 95, 96</t>
+  </si>
+  <si>
+    <t>min, max, 93, 96</t>
+  </si>
+  <si>
+    <t>Annual Energy (GWh)</t>
+  </si>
+  <si>
+    <t>Dry Season \n Energy \n (GWh)</t>
+  </si>
+  <si>
+    <t>Annual \n Energy \n (GWh)</t>
+  </si>
+  <si>
+    <t>Wet Season \n Daily Larvae \n Flow Fraction \n (%)</t>
+  </si>
+  <si>
+    <t>Dry Season \n Daily Anabranch \n Attraction Flow \n (m^3/s)</t>
+  </si>
+  <si>
+    <t>Dry Season \n Daily Larvae \n Flow Fraction \n (%)</t>
+  </si>
+  <si>
+    <t>Colorbar title</t>
+  </si>
+  <si>
+    <t>Dry Season Daily Anabranch \n Attraction Flow (m^3/s)</t>
+  </si>
+  <si>
+    <t>Dry Season Daily \n Anabranch Attraction Flow (m^3/s)</t>
+  </si>
+  <si>
+    <t>Dry Season Daily \n Larvae Flow Fraction (%)</t>
+  </si>
+  <si>
+    <t>Wet Season Daily \n Larvae Flow Fraction (%)</t>
+  </si>
+  <si>
+    <t>6, 2.5</t>
+  </si>
+  <si>
+    <t>2, 2</t>
+  </si>
+  <si>
+    <t>6, 6</t>
+  </si>
+  <si>
+    <t>Invert axis</t>
+  </si>
+  <si>
+    <t>Dry Season Energy (GWh)</t>
+  </si>
+  <si>
+    <t>5, 5</t>
+  </si>
+  <si>
+    <t>Daily Sediment Load \n Released During Flushing (10^9 kg)</t>
+  </si>
+  <si>
+    <t>Daily Sediment \n Load Released \n During Flushing \n (10^9 kg)</t>
+  </si>
+  <si>
+    <t>0, 800</t>
+  </si>
+  <si>
+    <t>Original values</t>
+  </si>
+  <si>
+    <t>-5, 50</t>
+  </si>
+  <si>
+    <t>Policies to Highlight (brushing alternative)</t>
+  </si>
+  <si>
+    <t>307, 247, 249</t>
+  </si>
+  <si>
+    <t>Stung_Treng</t>
+  </si>
+  <si>
+    <t>Hydropower_avg_MWH, water_surface_elevation, Q_in, Q_out, egg_pass, Q_out_under_thold, Q_out_over_thold, Hydropower_avg_MWH_over_thold, Hydropower_avg_MWH_under_thold, larv_surv_over_thold, larv_surv_under_thold, BS_W, capacity_active_reservoir, capacity_dead_reservoir, capacity_total_reservoir, res_flushed_load, SS_W_out, larv_mass_out_surv_total, Settled_mass</t>
+  </si>
+  <si>
+    <t>larv_pass_over_thold</t>
+  </si>
+  <si>
+    <t>larv_pass_under_thold</t>
+  </si>
+  <si>
+    <t>Specify DPS policy</t>
+  </si>
+  <si>
+    <t>Bypass Flow (m^3 s^-1)</t>
+  </si>
+  <si>
+    <t>Bypass Flow - Dry (m^3 s^-1)</t>
+  </si>
+  <si>
+    <t>Bypass Flow - Dry</t>
+  </si>
+  <si>
+    <t>Bypass Flow - Wet (m^3 s^-1)</t>
+  </si>
+  <si>
+    <t>Bypass Flow - Wet</t>
+  </si>
+  <si>
+    <t>Larvae Flow Fraction</t>
+  </si>
+  <si>
+    <t>larv_pass</t>
+  </si>
+  <si>
+    <t>Larvae Flow Fraction-Wet</t>
+  </si>
+  <si>
+    <t>Larvae Flow Fraction Wet</t>
+  </si>
+  <si>
+    <t>Larvae Flow Fraction-Dry</t>
+  </si>
+  <si>
+    <t>Larvae Flow Fraction Dry</t>
+  </si>
+  <si>
+    <t>Dry Season Daily Bypass \n Attraction Flow (m^3/s)</t>
+  </si>
+  <si>
+    <t>Dry Season \n Daily Bypass \n Attraction Flow \n (m^3/s)</t>
+  </si>
+  <si>
+    <t>177, 147, 103</t>
+  </si>
+  <si>
+    <t>Energy, Compromise, Larvae</t>
+  </si>
+  <si>
+    <t>Sambor EA</t>
+  </si>
+  <si>
+    <t>Sambor EA, Bypass Channel 1, Stung_Treng, Junction 4</t>
+  </si>
+  <si>
+    <t>63, 131, 116, 267, 114, 148</t>
+  </si>
+  <si>
     <t>Master-Slave</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Critical Residence Time</t>
-  </si>
-  <si>
-    <t>days</t>
-  </si>
-  <si>
-    <t>Col 19</t>
-  </si>
-  <si>
-    <t>Flow Threshold</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Flushed Load (10^6 kg)</t>
-  </si>
-  <si>
-    <t>res_flushed_load</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Q_out_under_thold</t>
-  </si>
-  <si>
-    <t>Velocity Threshold Wet</t>
-  </si>
-  <si>
-    <t>Velocity Threshold Dry</t>
-  </si>
-  <si>
-    <t>Anabranch Dry Flow (m^3 s^-1)</t>
-  </si>
-  <si>
-    <t>Ann Energy Production (GWh yr^-1)</t>
-  </si>
-  <si>
-    <t>Dry Energy Production (GWh yr^-1)</t>
-  </si>
-  <si>
-    <t>Hydropower_avg_MWH_under_thold</t>
-  </si>
-  <si>
-    <t>Number of variables to reevaluate</t>
-  </si>
-  <si>
-    <t>Variable Name</t>
-  </si>
-  <si>
-    <t>Plot Type</t>
-  </si>
-  <si>
-    <t>sum</t>
-  </si>
-  <si>
-    <t>Hydropower_avg_MWH_over_thold</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>Q_out_over_thold</t>
-  </si>
-  <si>
-    <t>Q_out</t>
-  </si>
-  <si>
-    <t>Stochastic or Deterministic</t>
-  </si>
-  <si>
-    <t>Number of reevaluations</t>
-  </si>
-  <si>
-    <t>Numbers of policies to reevaluate</t>
-  </si>
-  <si>
-    <t>Folder name for output</t>
-  </si>
-  <si>
-    <t>Axis Range</t>
-  </si>
-  <si>
-    <t>Plot Title</t>
-  </si>
-  <si>
-    <t>CDF</t>
-  </si>
-  <si>
-    <t>0, 1, 0, 1</t>
-  </si>
-  <si>
-    <t>Energy Production - Dry (GWh yr^-1)</t>
-  </si>
-  <si>
-    <t>Energy Production - Dry</t>
-  </si>
-  <si>
-    <t>Energy Production - Wet (GWh yr^-1)</t>
-  </si>
-  <si>
-    <t>Energy Production - Wet</t>
-  </si>
-  <si>
-    <t>Number of Processors</t>
-  </si>
-  <si>
-    <t>Plot Name</t>
-  </si>
-  <si>
-    <t>Plot 1</t>
-  </si>
-  <si>
-    <t>Subplot number</t>
-  </si>
-  <si>
-    <t>Subplot title</t>
-  </si>
-  <si>
-    <t>Deterministic Formulation</t>
-  </si>
-  <si>
-    <t>x-axis objective</t>
-  </si>
-  <si>
-    <t>Axis Title</t>
-  </si>
-  <si>
-    <t>y-axis objective</t>
-  </si>
-  <si>
-    <t>0, 5500</t>
-  </si>
-  <si>
-    <t>Annual Energy \n (GWh/yr)</t>
-  </si>
-  <si>
-    <t>Dry Energy \n (GWh/yr)</t>
-  </si>
-  <si>
-    <t>color axis objective</t>
-  </si>
-  <si>
-    <t>Anabranch Dry Flow (m^3/s)</t>
-  </si>
-  <si>
-    <t>z-axis objective</t>
-  </si>
-  <si>
-    <t>size objective</t>
-  </si>
-  <si>
-    <t>Par Axis Plot 1</t>
-  </si>
-  <si>
-    <t>Number of plots in sheet</t>
-  </si>
-  <si>
-    <t>Number of axes</t>
-  </si>
-  <si>
-    <t>Axis 1</t>
-  </si>
-  <si>
-    <t>Axis 2</t>
-  </si>
-  <si>
-    <t>Axis 3</t>
-  </si>
-  <si>
-    <t>Axis 4</t>
-  </si>
-  <si>
-    <t>Axis 5</t>
-  </si>
-  <si>
-    <t>Axis 0</t>
-  </si>
-  <si>
-    <t>Flushed Load \n (10^6 kg)</t>
-  </si>
-  <si>
-    <t>Velocity Threshold \n Wet (%)</t>
-  </si>
-  <si>
-    <t>Velocity Threshold \n Dry (%)</t>
-  </si>
-  <si>
-    <t>Brushed range</t>
-  </si>
-  <si>
-    <t>Axis Number of Color Bar</t>
-  </si>
-  <si>
-    <t>Par Axis Plot 2</t>
-  </si>
-  <si>
-    <t>4900, 5200, 0, 5200</t>
-  </si>
-  <si>
-    <t>0, 100, 94, 96</t>
-  </si>
-  <si>
-    <t>0, 100, 93, 97</t>
-  </si>
-  <si>
-    <t>Par Axis Plot 3</t>
-  </si>
-  <si>
-    <t>Number of plots</t>
-  </si>
-  <si>
-    <t>Policies to Highlight</t>
-  </si>
-  <si>
-    <t>0, 100, 91.921, 91.922, 96.71623, 96.71624</t>
-  </si>
-  <si>
-    <t>0, 100, 61.681, 61.682, 96.20382, 96.20383</t>
-  </si>
-  <si>
-    <t>4900, 5200, 0, 5200, 0, 5200</t>
-  </si>
-  <si>
-    <t>Velocity \n Threshold \n Dry (%)</t>
-  </si>
-  <si>
-    <t>Velocity \n Threshold \n Wet (%)</t>
-  </si>
-  <si>
-    <t>Anabranch \n Dry Flow (m^3/s)</t>
-  </si>
-  <si>
-    <t>No policies plotted</t>
-  </si>
-  <si>
-    <t>105, 106</t>
-  </si>
-  <si>
-    <t>Energy policy brushed</t>
-  </si>
-  <si>
-    <t>Energy and larvae policies brushed</t>
-  </si>
-  <si>
-    <t>All 3 selected policies brushed</t>
-  </si>
-  <si>
-    <t>4900, 5200</t>
-  </si>
-  <si>
-    <t>0, 100, 96.71623, 96.71624</t>
-  </si>
-  <si>
-    <t>0, 100, 96.20382, 96.20383</t>
-  </si>
-  <si>
-    <t>All policies in GRAY</t>
-  </si>
-  <si>
-    <t>All policies in COLOR</t>
-  </si>
-  <si>
-    <t>Colormap name (e.g., jet_r)</t>
-  </si>
-  <si>
-    <t>Min/Max Range</t>
-  </si>
-  <si>
-    <t>477.79, 2394.92</t>
-  </si>
-  <si>
-    <t>Policy Labels</t>
-  </si>
-  <si>
-    <t>Main Figure size (inches, W x H)</t>
-  </si>
-  <si>
-    <t>E, C, L</t>
-  </si>
-  <si>
-    <t>6.5, 2</t>
-  </si>
-  <si>
-    <t>Include color bar (main figure)?</t>
-  </si>
-  <si>
-    <t>Plot ideal point?</t>
-  </si>
-  <si>
-    <t>0, 105</t>
-  </si>
-  <si>
-    <t>Subplots layout: rows x cols</t>
-  </si>
-  <si>
-    <t>3, 6.5</t>
-  </si>
-  <si>
-    <t>Preference Arrows?</t>
-  </si>
-  <si>
-    <t>1, 3</t>
-  </si>
-  <si>
-    <t>jet_r</t>
-  </si>
-  <si>
-    <t>Q_jct(t-1)</t>
-  </si>
-  <si>
-    <t>Storage_Target_Release_Goal</t>
-  </si>
-  <si>
-    <t>All policies in COLOR, LIGHT</t>
-  </si>
-  <si>
-    <t>Main fig</t>
-  </si>
-  <si>
-    <t>Max, max</t>
-  </si>
-  <si>
-    <t>Max, Max, min, max</t>
-  </si>
-  <si>
-    <t>max, max, min, max, min, max</t>
-  </si>
-  <si>
-    <t>min, max, 60, 65, 95, 96</t>
-  </si>
-  <si>
-    <t>min, max, 94, 96</t>
-  </si>
-  <si>
-    <t>min, max, 88, 90, 95, 96</t>
-  </si>
-  <si>
-    <t>min, max, 93, 96</t>
-  </si>
-  <si>
-    <t>Annual Energy (GWh)</t>
-  </si>
-  <si>
-    <t>Dry Season \n Energy \n (GWh)</t>
-  </si>
-  <si>
-    <t>Annual \n Energy \n (GWh)</t>
-  </si>
-  <si>
-    <t>Wet Season \n Daily Larvae \n Flow Fraction \n (%)</t>
-  </si>
-  <si>
-    <t>Dry Season \n Daily Anabranch \n Attraction Flow \n (m^3/s)</t>
-  </si>
-  <si>
-    <t>Dry Season \n Daily Larvae \n Flow Fraction \n (%)</t>
-  </si>
-  <si>
-    <t>Colorbar title</t>
-  </si>
-  <si>
-    <t>Dry Season Daily Anabranch \n Attraction Flow (m^3/s)</t>
-  </si>
-  <si>
-    <t>Dry Season Daily \n Anabranch Attraction Flow (m^3/s)</t>
-  </si>
-  <si>
-    <t>Dry Season Daily \n Larvae Flow Fraction (%)</t>
-  </si>
-  <si>
-    <t>Wet Season Daily \n Larvae Flow Fraction (%)</t>
-  </si>
-  <si>
-    <t>6, 2.5</t>
-  </si>
-  <si>
-    <t>2, 2</t>
-  </si>
-  <si>
-    <t>6, 6</t>
-  </si>
-  <si>
-    <t>Invert axis</t>
-  </si>
-  <si>
-    <t>Dry Season Energy (GWh)</t>
-  </si>
-  <si>
-    <t>5, 5</t>
-  </si>
-  <si>
-    <t>Daily Sediment Load \n Released During Flushing (10^9 kg)</t>
-  </si>
-  <si>
-    <t>Daily Sediment \n Load Released \n During Flushing \n (10^9 kg)</t>
-  </si>
-  <si>
-    <t>0, 800</t>
-  </si>
-  <si>
-    <t>-5, 50</t>
-  </si>
-  <si>
-    <t>Policies to Highlight (brushing alternative)</t>
-  </si>
-  <si>
-    <t>307, 247, 249</t>
-  </si>
-  <si>
-    <t>Stung_Treng</t>
-  </si>
-  <si>
-    <t>Hydropower_avg_MWH, water_surface_elevation, Q_in, Q_out, egg_pass, Q_out_under_thold, Q_out_over_thold, Hydropower_avg_MWH_over_thold, Hydropower_avg_MWH_under_thold, larv_surv_over_thold, larv_surv_under_thold, BS_W, capacity_active_reservoir, capacity_dead_reservoir, capacity_total_reservoir, res_flushed_load, SS_W_out, larv_mass_out_surv_total, Settled_mass</t>
-  </si>
-  <si>
-    <t>Specify DPS policy</t>
-  </si>
-  <si>
-    <t>larv_pass</t>
-  </si>
-  <si>
-    <t>larv_pass_over_thold</t>
-  </si>
-  <si>
-    <t>Larvae Flow Fraction</t>
-  </si>
-  <si>
-    <t>Larvae Flow Fraction-Wet</t>
-  </si>
-  <si>
-    <t>Larvae Flow Fraction-Dry</t>
-  </si>
-  <si>
-    <t>larv_pass_under_thold</t>
-  </si>
-  <si>
-    <t>Larvae Flow Fraction Wet</t>
-  </si>
-  <si>
-    <t>Larvae Flow Fraction Dry</t>
-  </si>
-  <si>
-    <t>Bypass Flow (m^3 s^-1)</t>
-  </si>
-  <si>
-    <t>Bypass Flow - Dry (m^3 s^-1)</t>
-  </si>
-  <si>
-    <t>Bypass Flow - Wet (m^3 s^-1)</t>
-  </si>
-  <si>
-    <t>Bypass Flow - Dry</t>
-  </si>
-  <si>
-    <t>Bypass Flow - Wet</t>
-  </si>
-  <si>
-    <t>52, 22, 18, 42</t>
-  </si>
-  <si>
-    <t>Sambor EA</t>
-  </si>
-  <si>
-    <t>Sambor EA, Bypass Channel 1, Stung_Treng, Junction 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0000E+00"/>
   </numFmts>
   <fonts count="74" x14ac:knownFonts="1">
     <font>
@@ -4411,7 +4427,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="47"/>
@@ -4797,6 +4813,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="57" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="57" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4860,6 +4877,9 @@
     <xf numFmtId="0" fontId="72" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="57" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4877,16 +4897,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="81" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="73" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="57" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="81" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="57" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7021,112 +7041,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4914899" y="514350"/>
-          <a:ext cx="6105525" cy="2514600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Here's how I got this:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Organized</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> Robert's outputs by flow, so we see the fraction into the reservoir versus total upstream flow versus elevation.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Then, I figured out the TERMINAL (max WSE) point for each flow. That is, the highest the reservoir water level  can get for a given flow. This plots that for every flow. Roberts methods differed for main stem flows above 17,086, so I simply used the trend for the highest flow values to predict the TERMINAL points for the higher flows, which quickly reach 40 masl.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Having done all of that, I then multiplied the total upstream flows by the terminal fraction, so they represent the RESERVOIR inflows, which are needed to be placed in the table here. The terminal fractions of reservoir inflow for high water levels become constant at about 46% at very high flows. (half of the water is getting into the anabranch). Is this a believable percentage? Need to check on this.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -7473,7 +7387,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7528,7 +7442,7 @@
         <v>112</v>
       </c>
       <c r="B6" s="83">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -7551,9 +7465,7 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7570,7 +7482,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -7639,9 +7551,7 @@
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7651,7 +7561,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="128" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B1" s="127"/>
     </row>
@@ -7867,7 +7777,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7923,7 +7833,7 @@
         <v>39</v>
       </c>
       <c r="F2" s="85" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G2" s="35">
         <v>0</v>
@@ -7957,7 +7867,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="85" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D4" s="35">
         <v>0</v>
@@ -7987,478 +7897,371 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet20"/>
-  <dimension ref="A1:M17"/>
+  <sheetPr codeName="Sheet18"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.625" style="87" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.375" style="87" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="87" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="87" customWidth="1"/>
-    <col min="5" max="5" width="9" style="87"/>
-    <col min="6" max="6" width="11.625" style="87" customWidth="1"/>
-    <col min="7" max="7" width="19.625" style="87" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="87" customWidth="1"/>
-    <col min="9" max="9" width="11.25" style="87" customWidth="1"/>
-    <col min="10" max="12" width="9" style="87"/>
-    <col min="13" max="13" width="33.25" style="87" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="87"/>
+    <col min="1" max="1" width="50.5" style="93" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.375" style="93" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="93" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.875" style="127" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="93" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="93" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="93" customWidth="1"/>
+    <col min="9" max="9" width="19.625" style="93" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="93" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.25" style="93" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="93"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="159" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" s="155" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="154" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="20"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="106" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="108" t="s">
-        <v>196</v>
+        <v>124</v>
       </c>
       <c r="B3" s="48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="154" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4" s="155" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="154" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="107"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="106" t="s">
-        <v>216</v>
-      </c>
-      <c r="B6" s="107"/>
-    </row>
-    <row r="7" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="151" t="s">
-        <v>197</v>
-      </c>
-      <c r="B7" s="151" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="108" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="108" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="108" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="48">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="109" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="109" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="13"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="109" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="13"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="109" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="107" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="107" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="146" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="107" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="127" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="146" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="107" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="146" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="107">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="105" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="105" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C15" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="152" t="s">
+      <c r="E15" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="E7" s="152" t="s">
+      <c r="F15" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="152" t="s">
+      <c r="G15" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="G7" s="152" t="s">
+      <c r="H15" s="110" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="H7" s="153" t="s">
+      <c r="J15" s="147" t="s">
         <v>170</v>
       </c>
-      <c r="I7" s="153" t="s">
+      <c r="K15" s="147" t="s">
         <v>171</v>
       </c>
-      <c r="J7" s="153" t="s">
+      <c r="L15" s="147" t="s">
         <v>172</v>
       </c>
-      <c r="K7" s="153" t="s">
-        <v>198</v>
-      </c>
-      <c r="L7" s="153" t="s">
-        <v>208</v>
-      </c>
-      <c r="M7" s="153" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="106" t="s">
-        <v>193</v>
-      </c>
-      <c r="B8" s="106" t="s">
+      <c r="O15" s="181" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="106" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="106" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="107" t="s">
+      <c r="C16" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" s="107" t="s">
         <v>184</v>
       </c>
-      <c r="D8" s="107" t="s">
-        <v>199</v>
-      </c>
-      <c r="E8" s="152"/>
-      <c r="F8" s="107" t="s">
+      <c r="F16" s="13"/>
+      <c r="G16" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="G8" s="111" t="s">
-        <v>335</v>
-      </c>
-      <c r="H8" s="14">
+      <c r="H16" s="13">
+        <v>200000</v>
+      </c>
+      <c r="I16" s="111" t="s">
+        <v>338</v>
+      </c>
+      <c r="J16" s="14">
         <v>1E-3</v>
       </c>
-      <c r="I8" s="148" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="192" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="154" t="s">
-        <v>210</v>
-      </c>
-      <c r="L8" s="153"/>
-      <c r="M8" s="106" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="154" t="s">
-        <v>214</v>
-      </c>
-      <c r="B9" s="154" t="s">
+      <c r="K16" s="148" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="148" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="13">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="106" t="s">
+        <v>323</v>
+      </c>
+      <c r="B17" s="106" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" s="13">
+        <v>100</v>
+      </c>
+      <c r="I17" s="150" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" s="150"/>
+      <c r="K17" s="148" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="148" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="13">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="106" t="s">
+        <v>328</v>
+      </c>
+      <c r="B18" s="106" t="s">
+        <v>329</v>
+      </c>
+      <c r="C18" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="I18" s="111" t="s">
+        <v>338</v>
+      </c>
+      <c r="J18" s="111"/>
+      <c r="K18" s="148" t="s">
+        <v>80</v>
+      </c>
+      <c r="L18" s="148" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="13">
         <v>200</v>
       </c>
-      <c r="C9" s="155" t="s">
-        <v>184</v>
-      </c>
-      <c r="D9" s="155" t="s">
-        <v>199</v>
-      </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="155" t="s">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="106" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="107" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="107" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="G9" s="145" t="s">
-        <v>335</v>
-      </c>
-      <c r="H9" s="156">
-        <v>1E-3</v>
-      </c>
-      <c r="I9" s="157" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="157" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="154" t="s">
-        <v>210</v>
-      </c>
-      <c r="L9" s="48"/>
-      <c r="M9" s="154" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="154" t="s">
-        <v>212</v>
-      </c>
-      <c r="B10" s="154" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="155" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="155" t="s">
-        <v>199</v>
-      </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="155" t="s">
+      <c r="F19" s="13"/>
+      <c r="G19" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="G10" s="145" t="s">
-        <v>335</v>
-      </c>
-      <c r="H10" s="156">
-        <v>1E-3</v>
-      </c>
-      <c r="I10" s="157" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="157" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="154" t="s">
-        <v>210</v>
-      </c>
-      <c r="L10" s="48"/>
-      <c r="M10" s="154" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="106" t="s">
-        <v>329</v>
-      </c>
-      <c r="B11" s="106" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" s="107" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11" s="155" t="s">
-        <v>201</v>
-      </c>
-      <c r="E11" s="152"/>
-      <c r="F11" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" s="150" t="s">
-        <v>109</v>
-      </c>
-      <c r="H11" s="150"/>
-      <c r="I11" s="148" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="192" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="154" t="s">
-        <v>210</v>
-      </c>
-      <c r="L11" s="153"/>
-      <c r="M11" s="106" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="154" t="s">
-        <v>330</v>
-      </c>
-      <c r="B12" s="154" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" s="155" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" s="155" t="s">
-        <v>201</v>
-      </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="155" t="s">
-        <v>147</v>
-      </c>
-      <c r="G12" s="158" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" s="158"/>
-      <c r="I12" s="157" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="157" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="154" t="s">
-        <v>210</v>
-      </c>
-      <c r="L12" s="48"/>
-      <c r="M12" s="154" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="154" t="s">
-        <v>331</v>
-      </c>
-      <c r="B13" s="154" t="s">
-        <v>202</v>
-      </c>
-      <c r="C13" s="155" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="155" t="s">
-        <v>201</v>
-      </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="155" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="158" t="s">
-        <v>109</v>
-      </c>
-      <c r="H13" s="158"/>
-      <c r="I13" s="157" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="157" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="154" t="s">
-        <v>210</v>
-      </c>
-      <c r="L13" s="48"/>
-      <c r="M13" s="154" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="106" t="s">
-        <v>323</v>
-      </c>
-      <c r="B14" s="106" t="s">
-        <v>321</v>
-      </c>
-      <c r="C14" s="107" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="155" t="s">
-        <v>201</v>
-      </c>
-      <c r="E14" s="152"/>
-      <c r="F14" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="111" t="s">
-        <v>335</v>
-      </c>
-      <c r="H14" s="111"/>
-      <c r="I14" s="148" t="s">
-        <v>80</v>
-      </c>
-      <c r="J14" s="192" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="154" t="s">
-        <v>210</v>
-      </c>
-      <c r="L14" s="153"/>
-      <c r="M14" s="106" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="191" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="106" t="s">
-        <v>324</v>
-      </c>
-      <c r="B15" s="154" t="s">
-        <v>322</v>
-      </c>
-      <c r="C15" s="155" t="s">
-        <v>184</v>
-      </c>
-      <c r="D15" s="155" t="s">
-        <v>201</v>
-      </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="155" t="s">
-        <v>147</v>
-      </c>
-      <c r="G15" s="145" t="s">
-        <v>335</v>
-      </c>
-      <c r="H15" s="145"/>
-      <c r="I15" s="157" t="s">
-        <v>80</v>
-      </c>
-      <c r="J15" s="157" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="154" t="s">
-        <v>210</v>
-      </c>
-      <c r="L15" s="155" t="s">
-        <v>211</v>
-      </c>
-      <c r="M15" s="106" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="141" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="106" t="s">
-        <v>325</v>
-      </c>
-      <c r="B16" s="154" t="s">
-        <v>326</v>
-      </c>
-      <c r="C16" s="155" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="155" t="s">
-        <v>201</v>
-      </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="155" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="145" t="s">
-        <v>335</v>
-      </c>
-      <c r="H16" s="145"/>
-      <c r="I16" s="148" t="s">
-        <v>80</v>
-      </c>
-      <c r="J16" s="192" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="154" t="s">
-        <v>210</v>
-      </c>
-      <c r="L16" s="153"/>
-      <c r="M16" s="106" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="141" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="106" t="s">
-        <v>187</v>
-      </c>
-      <c r="C17" s="107" t="s">
-        <v>179</v>
-      </c>
-      <c r="D17" s="155" t="s">
-        <v>201</v>
-      </c>
-      <c r="E17" s="152"/>
-      <c r="F17" s="107" t="s">
-        <v>149</v>
-      </c>
-      <c r="G17" s="111" t="s">
-        <v>335</v>
-      </c>
-      <c r="H17" s="13">
+      <c r="H19" s="13">
+        <v>1000000000</v>
+      </c>
+      <c r="I19" s="111" t="s">
+        <v>338</v>
+      </c>
+      <c r="J19" s="13">
         <f>0.000000001</f>
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="I17" s="148" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="192" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="154" t="s">
-        <v>210</v>
-      </c>
-      <c r="L17" s="153"/>
-      <c r="M17" s="19" t="s">
-        <v>186</v>
-      </c>
+      <c r="K19" s="148" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="148" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="13">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="106"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="148"/>
+      <c r="O20" s="13">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="19"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="148"/>
+      <c r="L21" s="148"/>
+      <c r="O21" s="13">
+        <v>2000000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="13"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C27" s="128"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8468,7 +8271,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8479,7 +8282,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B1" s="113"/>
     </row>
@@ -8607,7 +8410,7 @@
       <c r="A15" s="122">
         <v>11911.438316443378</v>
       </c>
-      <c r="B15" s="186">
+      <c r="B15" s="188">
         <v>39</v>
       </c>
     </row>
@@ -8615,7 +8418,7 @@
       <c r="A16" s="122">
         <v>14660.231774084157</v>
       </c>
-      <c r="B16" s="186">
+      <c r="B16" s="188">
         <v>39</v>
       </c>
     </row>
@@ -8623,7 +8426,7 @@
       <c r="A17" s="122">
         <v>17409.025231724936</v>
       </c>
-      <c r="B17" s="186">
+      <c r="B17" s="188">
         <v>39</v>
       </c>
     </row>
@@ -8631,7 +8434,7 @@
       <c r="A18" s="122">
         <v>20157.818689365718</v>
       </c>
-      <c r="B18" s="186">
+      <c r="B18" s="188">
         <v>39</v>
       </c>
     </row>
@@ -8639,7 +8442,7 @@
       <c r="A19" s="122">
         <v>22906.612147006497</v>
       </c>
-      <c r="B19" s="186">
+      <c r="B19" s="188">
         <v>39</v>
       </c>
     </row>
@@ -8647,7 +8450,7 @@
       <c r="A20" s="122">
         <v>25655.405604647276</v>
       </c>
-      <c r="B20" s="186">
+      <c r="B20" s="188">
         <v>39</v>
       </c>
     </row>
@@ -8655,7 +8458,7 @@
       <c r="A21" s="122">
         <v>28404.199062288055</v>
       </c>
-      <c r="B21" s="186">
+      <c r="B21" s="188">
         <v>39</v>
       </c>
     </row>
@@ -8663,7 +8466,7 @@
       <c r="A22" s="122">
         <v>31152.992519928837</v>
       </c>
-      <c r="B22" s="186">
+      <c r="B22" s="188">
         <v>39</v>
       </c>
     </row>
@@ -8671,13 +8474,12 @@
       <c r="A23" s="122">
         <v>45813.224294012995</v>
       </c>
-      <c r="B23" s="186">
+      <c r="B23" s="188">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8705,17 +8507,17 @@
       <c r="A1" s="95" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="193" t="s">
+      <c r="B1" s="195" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="194"/>
+      <c r="C1" s="196"/>
       <c r="D1" s="102" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="193" t="s">
+      <c r="E1" s="195" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="194"/>
+      <c r="F1" s="196"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="95" t="s">
@@ -8792,7 +8594,7 @@
       <c r="L4" s="93"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="174">
+      <c r="A5" s="175">
         <v>1862.13</v>
       </c>
       <c r="B5" s="75">
@@ -8820,7 +8622,7 @@
       <c r="L5" s="93"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="174">
+      <c r="A6" s="175">
         <v>2466.96</v>
       </c>
       <c r="B6" s="75">
@@ -8848,7 +8650,7 @@
       <c r="L6" s="93"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="174">
+      <c r="A7" s="175">
         <v>2674.1400000000003</v>
       </c>
       <c r="B7" s="75">
@@ -8876,7 +8678,7 @@
       <c r="L7" s="93"/>
     </row>
     <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="174">
+      <c r="A8" s="175">
         <v>3250.9799999999996</v>
       </c>
       <c r="B8" s="75">
@@ -8904,7 +8706,7 @@
       <c r="L8" s="93"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="174">
+      <c r="A9" s="175">
         <v>2616.9599999999991</v>
       </c>
       <c r="B9" s="75">
@@ -8932,7 +8734,7 @@
       <c r="L9" s="93"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="174">
+      <c r="A10" s="175">
         <v>4422.9699999999993</v>
       </c>
       <c r="B10" s="75">
@@ -8960,7 +8762,7 @@
       <c r="L10" s="93"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="174">
+      <c r="A11" s="175">
         <v>4570.82</v>
       </c>
       <c r="B11" s="75">
@@ -8988,7 +8790,7 @@
       <c r="L11" s="93"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="174">
+      <c r="A12" s="175">
         <v>7021.27</v>
       </c>
       <c r="B12" s="75">
@@ -9016,7 +8818,7 @@
       <c r="L12" s="93"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="174">
+      <c r="A13" s="175">
         <v>9863.68</v>
       </c>
       <c r="B13" s="75">
@@ -9044,7 +8846,7 @@
       <c r="L13" s="93"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="174">
+      <c r="A14" s="175">
         <v>13416.68</v>
       </c>
       <c r="B14" s="75">
@@ -9072,7 +8874,7 @@
       <c r="L14" s="93"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="174">
+      <c r="A15" s="175">
         <v>16761.400000000001</v>
       </c>
       <c r="B15" s="75">
@@ -9100,7 +8902,7 @@
       <c r="L15" s="93"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="174">
+      <c r="A16" s="175">
         <v>18113.490000000002</v>
       </c>
       <c r="B16" s="75">
@@ -9128,7 +8930,7 @@
       <c r="L16" s="93"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="174">
+      <c r="A17" s="175">
         <v>19748.93</v>
       </c>
       <c r="B17" s="75">
@@ -9156,7 +8958,7 @@
       <c r="L17" s="93"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="174">
+      <c r="A18" s="175">
         <v>21384.369999999995</v>
       </c>
       <c r="B18" s="75">
@@ -9184,7 +8986,7 @@
       <c r="L18" s="99"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="174">
+      <c r="A19" s="175">
         <v>23019.809999999998</v>
       </c>
       <c r="B19" s="75">
@@ -9427,7 +9229,7 @@
   <dimension ref="A1:N143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9453,7 +9255,7 @@
         <v>55</v>
       </c>
       <c r="C2" s="126" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D2" s="132" t="s">
         <v>109</v>
@@ -11526,9 +11328,7 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11539,7 +11339,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -11553,7 +11353,7 @@
         <v>162</v>
       </c>
       <c r="D2" s="149" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -11567,7 +11367,7 @@
         <v>83</v>
       </c>
       <c r="D3" s="128" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -11651,7 +11451,7 @@
       <c r="A12" s="122">
         <v>11000</v>
       </c>
-      <c r="B12" s="183">
+      <c r="B12" s="185">
         <v>38.700000000000003</v>
       </c>
     </row>
@@ -11659,17 +11459,17 @@
       <c r="A13" s="122">
         <v>12000</v>
       </c>
-      <c r="B13" s="183">
+      <c r="B13" s="185">
         <v>40.4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C14" s="127"/>
-      <c r="D14" s="188"/>
+      <c r="D14" s="189"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C15" s="128"/>
-      <c r="D15" s="188"/>
+      <c r="D15" s="189"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11680,7 +11480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -11697,7 +11497,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="155" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="155">
         <v>4</v>
@@ -11707,24 +11507,24 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="155" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="155" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="155" t="s">
-        <v>218</v>
-      </c>
       <c r="C2" s="155" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D2" s="155" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E2" s="155" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="155" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B3" s="155">
         <v>0</v>
@@ -11741,7 +11541,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="155" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B4" s="108"/>
       <c r="C4" s="108"/>
@@ -11750,76 +11550,76 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="155" t="s">
-        <v>252</v>
-      </c>
-      <c r="B5" s="161" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" s="162" t="s">
         <v>317</v>
       </c>
-      <c r="C5" s="161" t="s">
+      <c r="C5" s="162" t="s">
         <v>317</v>
       </c>
-      <c r="D5" s="161" t="s">
+      <c r="D5" s="162" t="s">
         <v>317</v>
       </c>
-      <c r="E5" s="161" t="s">
+      <c r="E5" s="162" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="155" t="s">
-        <v>272</v>
-      </c>
-      <c r="B6" s="179" t="s">
-        <v>274</v>
-      </c>
-      <c r="C6" s="179" t="s">
-        <v>274</v>
-      </c>
-      <c r="D6" s="179" t="s">
-        <v>274</v>
-      </c>
-      <c r="E6" s="179" t="s">
-        <v>274</v>
+        <v>271</v>
+      </c>
+      <c r="B6" s="180" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="180" t="s">
+        <v>273</v>
+      </c>
+      <c r="D6" s="180" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" s="180" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="155" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F7" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="161" t="s">
         <v>275</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="I7" s="48" t="s">
-        <v>280</v>
-      </c>
-      <c r="J7" s="48" t="s">
-        <v>280</v>
-      </c>
-      <c r="K7" s="48" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="160" t="s">
-        <v>276</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -11836,8 +11636,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="160" t="s">
-        <v>277</v>
+      <c r="A9" s="161" t="s">
+        <v>276</v>
       </c>
       <c r="B9" s="48" t="s">
         <v>80</v>
@@ -11851,19 +11651,19 @@
       <c r="E9" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="163" t="s">
+      <c r="F9" s="164" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="163" t="s">
+      <c r="G9" s="164" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="163" t="s">
+      <c r="H9" s="164" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="160" t="s">
-        <v>281</v>
+      <c r="A10" s="161" t="s">
+        <v>280</v>
       </c>
       <c r="B10" s="48" t="s">
         <v>80</v>
@@ -11882,59 +11682,59 @@
       <c r="H10" s="142"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="160" t="s">
-        <v>279</v>
+      <c r="A11" s="161" t="s">
+        <v>278</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H11" s="48" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="162" t="s">
-        <v>222</v>
-      </c>
-      <c r="B12" s="163"/>
-      <c r="C12" s="163"/>
-      <c r="D12" s="163"/>
-      <c r="E12" s="163"/>
+      <c r="A12" s="163" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" s="164"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="164" t="s">
+      <c r="A13" s="165" t="s">
         <v>156</v>
       </c>
       <c r="B13" s="155" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" s="155" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="155" t="s">
-        <v>191</v>
-      </c>
       <c r="D13" s="155" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E13" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="165" t="s">
+      <c r="A14" s="166" t="s">
         <v>170</v>
       </c>
       <c r="B14" s="48">
@@ -11952,7 +11752,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="165" t="s">
+      <c r="A15" s="166" t="s">
         <v>171</v>
       </c>
       <c r="B15" s="155" t="s">
@@ -11968,11 +11768,11 @@
         <v>20</v>
       </c>
       <c r="G15" s="87" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="165" t="s">
+      <c r="A16" s="166" t="s">
         <v>172</v>
       </c>
       <c r="B16" s="155" t="s">
@@ -11988,88 +11788,88 @@
         <v>20</v>
       </c>
       <c r="G16" s="87" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="166" t="s">
+        <v>207</v>
+      </c>
+      <c r="B17" s="167" t="s">
+        <v>277</v>
+      </c>
+      <c r="C17" s="167" t="s">
+        <v>277</v>
+      </c>
+      <c r="D17" s="167" t="s">
+        <v>277</v>
+      </c>
+      <c r="E17" s="182" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" s="178" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" s="177" t="s">
+        <v>304</v>
+      </c>
+      <c r="C18" s="177" t="s">
+        <v>303</v>
+      </c>
+      <c r="D18" s="177" t="s">
+        <v>303</v>
+      </c>
+      <c r="E18" s="177" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="179" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="165" t="s">
-        <v>208</v>
-      </c>
-      <c r="B17" s="166" t="s">
-        <v>278</v>
-      </c>
-      <c r="C17" s="166" t="s">
-        <v>278</v>
-      </c>
-      <c r="D17" s="166" t="s">
-        <v>278</v>
-      </c>
-      <c r="E17" s="180" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" s="177" t="s">
+      <c r="B19" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="180" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="163" t="s">
         <v>223</v>
       </c>
-      <c r="B18" s="176" t="s">
-        <v>305</v>
-      </c>
-      <c r="C18" s="176" t="s">
-        <v>304</v>
-      </c>
-      <c r="D18" s="176" t="s">
-        <v>304</v>
-      </c>
-      <c r="E18" s="176" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="178" t="s">
-        <v>309</v>
-      </c>
-      <c r="B19" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="179" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="162" t="s">
-        <v>224</v>
-      </c>
-      <c r="B20" s="163"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="163"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="164"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="164" t="s">
+      <c r="A21" s="165" t="s">
         <v>156</v>
       </c>
       <c r="B21" s="155" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="155" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" s="155" t="s">
         <v>193</v>
       </c>
-      <c r="C21" s="155" t="s">
-        <v>193</v>
-      </c>
-      <c r="D21" s="155" t="s">
-        <v>194</v>
-      </c>
       <c r="E21" s="155" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="165" t="s">
+      <c r="A22" s="166" t="s">
         <v>170</v>
       </c>
       <c r="B22" s="156">
@@ -12086,7 +11886,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="165" t="s">
+      <c r="A23" s="166" t="s">
         <v>171</v>
       </c>
       <c r="B23" s="155" t="s">
@@ -12103,7 +11903,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="165" t="s">
+      <c r="A24" s="166" t="s">
         <v>172</v>
       </c>
       <c r="B24" s="155" t="s">
@@ -12120,84 +11920,84 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="165" t="s">
-        <v>208</v>
-      </c>
-      <c r="B25" s="166" t="s">
-        <v>225</v>
-      </c>
-      <c r="C25" s="166" t="s">
-        <v>225</v>
-      </c>
-      <c r="D25" s="166" t="s">
-        <v>314</v>
-      </c>
-      <c r="E25" s="166" t="s">
-        <v>225</v>
+      <c r="A25" s="166" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" s="167" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" s="167" t="s">
+        <v>224</v>
+      </c>
+      <c r="D25" s="167" t="s">
+        <v>313</v>
+      </c>
+      <c r="E25" s="167" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="177" t="s">
-        <v>223</v>
+      <c r="A26" s="178" t="s">
+        <v>222</v>
       </c>
       <c r="B26" s="155" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C26" s="155" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D26" s="155" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E26" s="155" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="178" t="s">
-        <v>309</v>
-      </c>
-      <c r="B27" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="179" t="s">
+      <c r="A27" s="179" t="s">
+        <v>308</v>
+      </c>
+      <c r="B27" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="180" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="162" t="s">
-        <v>228</v>
-      </c>
-      <c r="B28" s="163"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
+      <c r="A28" s="163" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" s="164"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="164"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="164" t="s">
+      <c r="A29" s="165" t="s">
         <v>156</v>
       </c>
       <c r="B29" s="155" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C29" s="155" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D29" s="155" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E29" s="155" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="165" t="s">
+      <c r="A30" s="166" t="s">
         <v>170</v>
       </c>
       <c r="B30" s="48">
@@ -12214,7 +12014,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="165" t="s">
+      <c r="A31" s="166" t="s">
         <v>171</v>
       </c>
       <c r="B31" s="155" t="s">
@@ -12231,7 +12031,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="165" t="s">
+      <c r="A32" s="166" t="s">
         <v>172</v>
       </c>
       <c r="B32" s="155" t="s">
@@ -12248,240 +12048,240 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="165" t="s">
+      <c r="A33" s="166" t="s">
+        <v>269</v>
+      </c>
+      <c r="F33" s="172" t="s">
         <v>270</v>
       </c>
-      <c r="F33" s="171" t="s">
-        <v>271</v>
-      </c>
-      <c r="G33" s="171" t="s">
-        <v>271</v>
+      <c r="G33" s="172" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="177" t="s">
-        <v>223</v>
+      <c r="A34" s="178" t="s">
+        <v>222</v>
       </c>
       <c r="B34" s="155" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C34" s="155" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D34" s="155" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E34" s="155" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="178" t="s">
-        <v>309</v>
-      </c>
-      <c r="B35" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="179" t="s">
+      <c r="A35" s="179" t="s">
+        <v>308</v>
+      </c>
+      <c r="B35" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="180" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="160" t="s">
-        <v>269</v>
-      </c>
-      <c r="B36" s="161" t="s">
-        <v>283</v>
-      </c>
-      <c r="C36" s="161" t="s">
-        <v>283</v>
-      </c>
-      <c r="D36" s="161" t="s">
-        <v>283</v>
-      </c>
-      <c r="E36" s="161" t="s">
-        <v>283</v>
+      <c r="A36" s="161" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36" s="162" t="s">
+        <v>282</v>
+      </c>
+      <c r="C36" s="162" t="s">
+        <v>282</v>
+      </c>
+      <c r="D36" s="162" t="s">
+        <v>282</v>
+      </c>
+      <c r="E36" s="162" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="162" t="s">
-        <v>230</v>
-      </c>
-      <c r="B37" s="170"/>
-      <c r="C37" s="170"/>
-      <c r="D37" s="170"/>
-      <c r="E37" s="163"/>
-      <c r="F37" s="163"/>
+      <c r="A37" s="163" t="s">
+        <v>229</v>
+      </c>
+      <c r="B37" s="171"/>
+      <c r="C37" s="171"/>
+      <c r="D37" s="171"/>
+      <c r="E37" s="164"/>
+      <c r="F37" s="164"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="164" t="s">
+      <c r="A38" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="B38" s="164"/>
-      <c r="C38" s="164"/>
-      <c r="D38" s="164"/>
+      <c r="B38" s="165"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="48"/>
       <c r="F38" s="48"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="165" t="s">
+      <c r="A39" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="B39" s="165"/>
-      <c r="C39" s="165"/>
-      <c r="D39" s="165"/>
+      <c r="B39" s="166"/>
+      <c r="C39" s="166"/>
+      <c r="D39" s="166"/>
       <c r="E39" s="48"/>
       <c r="F39" s="48"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="165" t="s">
+      <c r="A40" s="166" t="s">
         <v>171</v>
       </c>
-      <c r="B40" s="165"/>
-      <c r="C40" s="165"/>
-      <c r="D40" s="165"/>
+      <c r="B40" s="166"/>
+      <c r="C40" s="166"/>
+      <c r="D40" s="166"/>
       <c r="E40" s="48"/>
       <c r="F40" s="48"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="165" t="s">
+      <c r="A41" s="166" t="s">
         <v>172</v>
       </c>
-      <c r="B41" s="165"/>
-      <c r="C41" s="165"/>
-      <c r="D41" s="165"/>
+      <c r="B41" s="166"/>
+      <c r="C41" s="166"/>
+      <c r="D41" s="166"/>
       <c r="E41" s="48"/>
       <c r="F41" s="48"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="165" t="s">
-        <v>208</v>
-      </c>
-      <c r="B42" s="165"/>
-      <c r="C42" s="165"/>
-      <c r="D42" s="165"/>
+      <c r="A42" s="166" t="s">
+        <v>207</v>
+      </c>
+      <c r="B42" s="166"/>
+      <c r="C42" s="166"/>
+      <c r="D42" s="166"/>
       <c r="E42" s="48"/>
       <c r="F42" s="48"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="165" t="s">
-        <v>223</v>
-      </c>
-      <c r="B43" s="165"/>
-      <c r="C43" s="165"/>
-      <c r="D43" s="165"/>
+      <c r="A43" s="166" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" s="166"/>
+      <c r="C43" s="166"/>
+      <c r="D43" s="166"/>
       <c r="E43" s="48"/>
       <c r="F43" s="48"/>
     </row>
     <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="178" t="s">
-        <v>309</v>
-      </c>
-      <c r="B44" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="163"/>
+      <c r="A44" s="179" t="s">
+        <v>308</v>
+      </c>
+      <c r="B44" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="164"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="162" t="s">
-        <v>231</v>
-      </c>
-      <c r="B45" s="170"/>
-      <c r="C45" s="170"/>
-      <c r="D45" s="170"/>
-      <c r="E45" s="163"/>
-      <c r="F45" s="163"/>
+      <c r="A45" s="163" t="s">
+        <v>230</v>
+      </c>
+      <c r="B45" s="171"/>
+      <c r="C45" s="171"/>
+      <c r="D45" s="171"/>
+      <c r="E45" s="164"/>
+      <c r="F45" s="164"/>
       <c r="G45" s="141"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="164" t="s">
+      <c r="A46" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="B46" s="164"/>
-      <c r="C46" s="164"/>
-      <c r="D46" s="164"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="157"/>
       <c r="F46" s="48"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="165" t="s">
+      <c r="A47" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="B47" s="165"/>
-      <c r="C47" s="165"/>
-      <c r="D47" s="165"/>
+      <c r="B47" s="166"/>
+      <c r="C47" s="166"/>
+      <c r="D47" s="166"/>
       <c r="E47" s="48"/>
       <c r="F47" s="48"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="165" t="s">
+      <c r="A48" s="166" t="s">
         <v>171</v>
       </c>
-      <c r="B48" s="165"/>
-      <c r="C48" s="165"/>
-      <c r="D48" s="165"/>
+      <c r="B48" s="166"/>
+      <c r="C48" s="166"/>
+      <c r="D48" s="166"/>
       <c r="E48" s="155"/>
       <c r="F48" s="48"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="165" t="s">
+      <c r="A49" s="166" t="s">
         <v>172</v>
       </c>
-      <c r="B49" s="165"/>
-      <c r="C49" s="165"/>
-      <c r="D49" s="165"/>
+      <c r="B49" s="166"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="166"/>
       <c r="E49" s="155"/>
       <c r="F49" s="48"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="165" t="s">
-        <v>208</v>
-      </c>
-      <c r="B50" s="165"/>
-      <c r="C50" s="165"/>
-      <c r="D50" s="165"/>
+      <c r="A50" s="166" t="s">
+        <v>207</v>
+      </c>
+      <c r="B50" s="166"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="166"/>
       <c r="E50" s="155"/>
       <c r="F50" s="48"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="165" t="s">
-        <v>223</v>
-      </c>
-      <c r="B51" s="165"/>
-      <c r="C51" s="165"/>
-      <c r="D51" s="165"/>
+      <c r="A51" s="166" t="s">
+        <v>222</v>
+      </c>
+      <c r="B51" s="166"/>
+      <c r="C51" s="166"/>
+      <c r="D51" s="166"/>
       <c r="E51" s="155"/>
       <c r="F51" s="48"/>
     </row>
     <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="178" t="s">
-        <v>309</v>
-      </c>
-      <c r="B52" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="179" t="s">
+      <c r="A52" s="179" t="s">
+        <v>308</v>
+      </c>
+      <c r="B52" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="180" t="s">
         <v>20</v>
       </c>
     </row>
@@ -12520,8 +12320,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="159" t="s">
-        <v>233</v>
+      <c r="A1" s="160" t="s">
+        <v>232</v>
       </c>
       <c r="B1" s="35">
         <v>1</v>
@@ -12537,64 +12337,64 @@
       <c r="M1" s="155"/>
       <c r="N1" s="155"/>
       <c r="O1" s="155"/>
-      <c r="P1" s="167"/>
+      <c r="P1" s="168"/>
       <c r="R1" s="48"/>
       <c r="S1" s="48"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="159" t="s">
-        <v>217</v>
-      </c>
-      <c r="B2" s="169" t="s">
+      <c r="A2" s="160" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="170" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="155" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="170" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" s="170" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="170" t="s">
+        <v>260</v>
+      </c>
+      <c r="H2" s="170" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="155" t="s">
-        <v>287</v>
-      </c>
-      <c r="D2" s="169" t="s">
-        <v>286</v>
-      </c>
-      <c r="E2" s="169" t="s">
-        <v>259</v>
-      </c>
-      <c r="F2" s="169" t="s">
+      <c r="I2" s="155"/>
+      <c r="J2" s="170" t="s">
+        <v>258</v>
+      </c>
+      <c r="K2" s="170" t="s">
+        <v>267</v>
+      </c>
+      <c r="L2" s="170" t="s">
+        <v>266</v>
+      </c>
+      <c r="M2" s="170" t="s">
+        <v>260</v>
+      </c>
+      <c r="N2" s="170" t="s">
         <v>261</v>
       </c>
-      <c r="H2" s="169" t="s">
-        <v>263</v>
-      </c>
-      <c r="I2" s="155"/>
-      <c r="J2" s="169" t="s">
-        <v>259</v>
-      </c>
-      <c r="K2" s="169" t="s">
-        <v>268</v>
-      </c>
-      <c r="L2" s="169" t="s">
-        <v>267</v>
-      </c>
-      <c r="M2" s="169" t="s">
-        <v>261</v>
-      </c>
-      <c r="N2" s="169" t="s">
+      <c r="O2" s="170" t="s">
         <v>262</v>
       </c>
-      <c r="O2" s="169" t="s">
-        <v>263</v>
-      </c>
       <c r="Q2" s="155" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R2" s="155" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S2" s="155" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="159" t="s">
-        <v>234</v>
+      <c r="A3" s="160" t="s">
+        <v>233</v>
       </c>
       <c r="B3" s="155">
         <v>6</v>
@@ -12644,59 +12444,59 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="159" t="s">
+      <c r="A4" s="160" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="155" t="s">
         <v>220</v>
       </c>
-      <c r="B4" s="155" t="s">
-        <v>221</v>
-      </c>
       <c r="C4" s="155" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D4" s="155" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E4" s="155" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F4" s="155" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H4" s="155" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I4" s="155"/>
       <c r="J4" s="155" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K4" s="155" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L4" s="155" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M4" s="155" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N4" s="155" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O4" s="155" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q4" s="155" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R4" s="155" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S4" s="155" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="159" t="s">
-        <v>245</v>
+      <c r="A5" s="160" t="s">
+        <v>244</v>
       </c>
       <c r="B5" s="155">
         <v>2</v>
@@ -12746,231 +12546,231 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="159" t="s">
-        <v>269</v>
+      <c r="A6" s="160" t="s">
+        <v>268</v>
       </c>
       <c r="B6" s="155" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C6" s="155" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D6" s="155" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E6" s="155" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F6" s="155" t="s">
-        <v>283</v>
-      </c>
-      <c r="H6" s="161" t="s">
-        <v>283</v>
-      </c>
-      <c r="I6" s="161"/>
-      <c r="J6" s="161" t="s">
-        <v>283</v>
-      </c>
-      <c r="K6" s="161" t="s">
-        <v>283</v>
-      </c>
-      <c r="L6" s="161" t="s">
-        <v>283</v>
-      </c>
-      <c r="M6" s="161" t="s">
-        <v>283</v>
-      </c>
-      <c r="N6" s="161" t="s">
-        <v>283</v>
-      </c>
-      <c r="O6" s="161" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q6" s="161"/>
-      <c r="R6" s="161"/>
-      <c r="S6" s="161"/>
+        <v>282</v>
+      </c>
+      <c r="H6" s="162" t="s">
+        <v>282</v>
+      </c>
+      <c r="I6" s="162"/>
+      <c r="J6" s="162" t="s">
+        <v>282</v>
+      </c>
+      <c r="K6" s="162" t="s">
+        <v>282</v>
+      </c>
+      <c r="L6" s="162" t="s">
+        <v>282</v>
+      </c>
+      <c r="M6" s="162" t="s">
+        <v>282</v>
+      </c>
+      <c r="N6" s="162" t="s">
+        <v>282</v>
+      </c>
+      <c r="O6" s="162" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q6" s="162"/>
+      <c r="R6" s="162"/>
+      <c r="S6" s="162"/>
     </row>
     <row r="7" spans="1:22" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="181" t="s">
+      <c r="A7" s="183" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" s="177" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" s="177" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" s="177" t="s">
+        <v>334</v>
+      </c>
+      <c r="E7" s="177" t="s">
+        <v>334</v>
+      </c>
+      <c r="F7" s="177" t="s">
+        <v>334</v>
+      </c>
+      <c r="H7" s="155" t="s">
         <v>301</v>
-      </c>
-      <c r="B7" s="176" t="s">
-        <v>302</v>
-      </c>
-      <c r="C7" s="176" t="s">
-        <v>302</v>
-      </c>
-      <c r="D7" s="176" t="s">
-        <v>302</v>
-      </c>
-      <c r="E7" s="176" t="s">
-        <v>302</v>
-      </c>
-      <c r="F7" s="176" t="s">
-        <v>302</v>
-      </c>
-      <c r="H7" s="155" t="s">
-        <v>302</v>
       </c>
       <c r="I7" s="155"/>
       <c r="J7" s="155" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K7" s="155" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L7" s="155" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M7" s="155" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N7" s="155" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O7" s="155" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q7" s="161"/>
-      <c r="R7" s="161"/>
-      <c r="S7" s="161"/>
+        <v>301</v>
+      </c>
+      <c r="Q7" s="162"/>
+      <c r="R7" s="162"/>
+      <c r="S7" s="162"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="182" t="s">
+      <c r="A8" s="184" t="s">
         <v>316</v>
       </c>
-      <c r="B8" s="161" t="s">
+      <c r="B8" s="162" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8" s="162" t="s">
         <v>317</v>
       </c>
-      <c r="C8" s="161" t="s">
+      <c r="D8" s="162" t="s">
         <v>317</v>
       </c>
-      <c r="D8" s="161" t="s">
+      <c r="E8" s="162" t="s">
         <v>317</v>
       </c>
-      <c r="E8" s="161" t="s">
+      <c r="F8" s="162" t="s">
         <v>317</v>
       </c>
-      <c r="F8" s="161" t="s">
-        <v>317</v>
-      </c>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="161"/>
-      <c r="K8" s="161"/>
-      <c r="L8" s="161"/>
-      <c r="M8" s="161"/>
-      <c r="N8" s="161"/>
-      <c r="O8" s="161"/>
-      <c r="Q8" s="161"/>
-      <c r="R8" s="161"/>
-      <c r="S8" s="161"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="162"/>
+      <c r="K8" s="162"/>
+      <c r="L8" s="162"/>
+      <c r="M8" s="162"/>
+      <c r="N8" s="162"/>
+      <c r="O8" s="162"/>
+      <c r="Q8" s="162"/>
+      <c r="R8" s="162"/>
+      <c r="S8" s="162"/>
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="182" t="s">
-        <v>272</v>
-      </c>
-      <c r="B9" s="179" t="s">
-        <v>274</v>
-      </c>
-      <c r="C9" s="179" t="s">
-        <v>274</v>
-      </c>
-      <c r="D9" s="179" t="s">
-        <v>274</v>
-      </c>
-      <c r="E9" s="179" t="s">
-        <v>274</v>
-      </c>
-      <c r="F9" s="179" t="s">
-        <v>274</v>
-      </c>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="161"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="161"/>
-      <c r="O9" s="161"/>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="161"/>
-      <c r="S9" s="161"/>
+      <c r="A9" s="184" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" s="180" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" s="180" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="180" t="s">
+        <v>273</v>
+      </c>
+      <c r="E9" s="180" t="s">
+        <v>273</v>
+      </c>
+      <c r="F9" s="180" t="s">
+        <v>273</v>
+      </c>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="162"/>
+      <c r="K9" s="162"/>
+      <c r="L9" s="162"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="162"/>
+      <c r="O9" s="162"/>
+      <c r="Q9" s="162"/>
+      <c r="R9" s="162"/>
+      <c r="S9" s="162"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="B10" s="170"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="163"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="163"/>
-      <c r="M10" s="163"/>
-      <c r="N10" s="163"/>
-      <c r="O10" s="163"/>
-      <c r="Q10" s="163"/>
-      <c r="R10" s="163"/>
-      <c r="S10" s="163"/>
+      <c r="A10" s="163" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" s="171"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="171"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="164"/>
+      <c r="L10" s="164"/>
+      <c r="M10" s="164"/>
+      <c r="N10" s="164"/>
+      <c r="O10" s="164"/>
+      <c r="Q10" s="164"/>
+      <c r="R10" s="164"/>
+      <c r="S10" s="164"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="164" t="s">
+      <c r="A11" s="165" t="s">
         <v>156</v>
       </c>
       <c r="B11" s="155" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C11" s="155" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D11" s="155" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E11" s="155" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F11" s="155" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H11" s="155" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I11" s="155"/>
       <c r="J11" s="107" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K11" s="107" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L11" s="107" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M11" s="107" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N11" s="107" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O11" s="107" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q11" s="155" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R11" s="155" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S11" s="155" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="165" t="s">
+      <c r="A12" s="166" t="s">
         <v>170</v>
       </c>
       <c r="B12" s="156">
@@ -13021,7 +12821,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="165" t="s">
+      <c r="A13" s="166" t="s">
         <v>171</v>
       </c>
       <c r="B13" s="155" t="s">
@@ -13072,7 +12872,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="165" t="s">
+      <c r="A14" s="166" t="s">
         <v>172</v>
       </c>
       <c r="B14" s="155" t="s">
@@ -13123,153 +12923,153 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="165" t="s">
-        <v>244</v>
-      </c>
-      <c r="B15" s="166"/>
-      <c r="D15" s="166" t="s">
+      <c r="A15" s="166" t="s">
+        <v>243</v>
+      </c>
+      <c r="B15" s="167"/>
+      <c r="D15" s="167" t="s">
+        <v>288</v>
+      </c>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167" t="s">
+        <v>287</v>
+      </c>
+      <c r="H15" s="167" t="s">
         <v>289</v>
       </c>
-      <c r="E15" s="166"/>
-      <c r="F15" s="166" t="s">
-        <v>288</v>
-      </c>
-      <c r="H15" s="166" t="s">
-        <v>290</v>
-      </c>
-      <c r="I15" s="166"/>
+      <c r="I15" s="167"/>
       <c r="J15" s="155"/>
       <c r="K15" s="155"/>
       <c r="L15" s="155"/>
       <c r="M15" s="155"/>
       <c r="N15" s="155"/>
       <c r="O15" s="155"/>
-      <c r="Q15" s="166"/>
-      <c r="R15" s="166" t="s">
-        <v>248</v>
-      </c>
-      <c r="S15" s="166"/>
-      <c r="V15" s="167"/>
+      <c r="Q15" s="167"/>
+      <c r="R15" s="167" t="s">
+        <v>247</v>
+      </c>
+      <c r="S15" s="167"/>
+      <c r="V15" s="168"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="177" t="s">
-        <v>223</v>
+      <c r="A16" s="178" t="s">
+        <v>222</v>
       </c>
       <c r="B16" s="155" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C16" s="155" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D16" s="155" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E16" s="155" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F16" s="155" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H16" s="155" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I16" s="155"/>
       <c r="J16" s="155" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K16" s="155" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L16" s="155" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M16" s="155" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N16" s="155" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O16" s="155" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q16" s="155" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R16" s="155" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S16" s="155" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="162" t="s">
-        <v>235</v>
-      </c>
-      <c r="B17" s="175"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="175"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="175"/>
-      <c r="H17" s="175"/>
-      <c r="I17" s="175"/>
-      <c r="Q17" s="163"/>
-      <c r="R17" s="163"/>
-      <c r="S17" s="163"/>
+      <c r="A17" s="163" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" s="176"/>
+      <c r="C17" s="176"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
+      <c r="Q17" s="164"/>
+      <c r="R17" s="164"/>
+      <c r="S17" s="164"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="164" t="s">
+      <c r="A18" s="165" t="s">
         <v>156</v>
       </c>
       <c r="B18" s="155" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C18" s="155" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D18" s="155" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E18" s="155" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F18" s="155" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H18" s="155" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I18" s="155"/>
       <c r="J18" s="107" t="s">
+        <v>191</v>
+      </c>
+      <c r="K18" s="107" t="s">
+        <v>191</v>
+      </c>
+      <c r="L18" s="107" t="s">
+        <v>191</v>
+      </c>
+      <c r="M18" s="107" t="s">
+        <v>191</v>
+      </c>
+      <c r="N18" s="107" t="s">
+        <v>191</v>
+      </c>
+      <c r="O18" s="107" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q18" s="155" t="s">
         <v>192</v>
       </c>
-      <c r="K18" s="107" t="s">
+      <c r="R18" s="155" t="s">
         <v>192</v>
       </c>
-      <c r="L18" s="107" t="s">
+      <c r="S18" s="155" t="s">
         <v>192</v>
       </c>
-      <c r="M18" s="107" t="s">
-        <v>192</v>
-      </c>
-      <c r="N18" s="107" t="s">
-        <v>192</v>
-      </c>
-      <c r="O18" s="107" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q18" s="155" t="s">
-        <v>193</v>
-      </c>
-      <c r="R18" s="155" t="s">
-        <v>193</v>
-      </c>
-      <c r="S18" s="155" t="s">
-        <v>193</v>
-      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="165" t="s">
+      <c r="A19" s="166" t="s">
         <v>170</v>
       </c>
       <c r="B19" s="48">
@@ -13320,7 +13120,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="165" t="s">
+      <c r="A20" s="166" t="s">
         <v>171</v>
       </c>
       <c r="B20" s="155" t="s">
@@ -13371,7 +13171,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="165" t="s">
+      <c r="A21" s="166" t="s">
         <v>172</v>
       </c>
       <c r="B21" s="155" t="s">
@@ -13422,149 +13222,149 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="165" t="s">
-        <v>244</v>
-      </c>
-      <c r="D22" s="166" t="s">
+      <c r="A22" s="166" t="s">
+        <v>243</v>
+      </c>
+      <c r="D22" s="167" t="s">
+        <v>291</v>
+      </c>
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="H22" s="167" t="s">
         <v>292</v>
       </c>
-      <c r="E22" s="166"/>
-      <c r="F22" s="166"/>
-      <c r="H22" s="166" t="s">
-        <v>293</v>
-      </c>
-      <c r="I22" s="166"/>
+      <c r="I22" s="167"/>
       <c r="J22" s="155"/>
       <c r="K22" s="155"/>
       <c r="L22" s="155"/>
       <c r="M22" s="155"/>
       <c r="N22" s="155"/>
       <c r="O22" s="155"/>
-      <c r="Q22" s="166"/>
-      <c r="R22" s="166" t="s">
-        <v>247</v>
-      </c>
-      <c r="S22" s="166"/>
+      <c r="Q22" s="167"/>
+      <c r="R22" s="167" t="s">
+        <v>246</v>
+      </c>
+      <c r="S22" s="167"/>
     </row>
     <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.2">
-      <c r="A23" s="177" t="s">
-        <v>223</v>
-      </c>
-      <c r="B23" s="176" t="s">
-        <v>298</v>
-      </c>
-      <c r="C23" s="176" t="s">
-        <v>298</v>
-      </c>
-      <c r="D23" s="176" t="s">
-        <v>298</v>
-      </c>
-      <c r="E23" s="176" t="s">
-        <v>298</v>
-      </c>
-      <c r="F23" s="176" t="s">
-        <v>298</v>
+      <c r="A23" s="178" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" s="177" t="s">
+        <v>297</v>
+      </c>
+      <c r="C23" s="177" t="s">
+        <v>297</v>
+      </c>
+      <c r="D23" s="177" t="s">
+        <v>297</v>
+      </c>
+      <c r="E23" s="177" t="s">
+        <v>297</v>
+      </c>
+      <c r="F23" s="177" t="s">
+        <v>297</v>
       </c>
       <c r="H23" s="155" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I23" s="155"/>
       <c r="J23" s="155" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K23" s="155" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L23" s="155" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M23" s="155" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N23" s="155" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O23" s="155" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q23" s="155" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R23" s="155" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S23" s="155" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="162" t="s">
-        <v>236</v>
-      </c>
-      <c r="B24" s="175"/>
-      <c r="C24" s="175"/>
-      <c r="D24" s="175"/>
-      <c r="E24" s="175"/>
-      <c r="F24" s="175"/>
-      <c r="H24" s="175"/>
-      <c r="I24" s="175"/>
-      <c r="Q24" s="163"/>
-      <c r="R24" s="163"/>
-      <c r="S24" s="163"/>
+      <c r="A24" s="163" t="s">
+        <v>235</v>
+      </c>
+      <c r="B24" s="176"/>
+      <c r="C24" s="176"/>
+      <c r="D24" s="176"/>
+      <c r="E24" s="176"/>
+      <c r="F24" s="176"/>
+      <c r="H24" s="176"/>
+      <c r="I24" s="176"/>
+      <c r="Q24" s="164"/>
+      <c r="R24" s="164"/>
+      <c r="S24" s="164"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="164" t="s">
+      <c r="A25" s="165" t="s">
         <v>156</v>
       </c>
       <c r="B25" s="107" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C25" s="107" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D25" s="107" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E25" s="107" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F25" s="107" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H25" s="107" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I25" s="107"/>
       <c r="J25" s="107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K25" s="107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L25" s="107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M25" s="107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N25" s="107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O25" s="107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q25" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R25" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S25" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="165" t="s">
+      <c r="A26" s="166" t="s">
         <v>170</v>
       </c>
       <c r="B26" s="48">
@@ -13615,7 +13415,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="165" t="s">
+      <c r="A27" s="166" t="s">
         <v>171</v>
       </c>
       <c r="B27" s="48" t="s">
@@ -13666,7 +13466,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="165" t="s">
+      <c r="A28" s="166" t="s">
         <v>172</v>
       </c>
       <c r="B28" s="48" t="s">
@@ -13717,8 +13517,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="165" t="s">
-        <v>244</v>
+      <c r="A29" s="166" t="s">
+        <v>243</v>
       </c>
       <c r="B29" s="155"/>
       <c r="C29" s="155"/>
@@ -13726,144 +13526,144 @@
       <c r="E29" s="155"/>
       <c r="F29" s="155"/>
       <c r="H29" s="155"/>
-      <c r="I29" s="166"/>
-      <c r="J29" s="166" t="s">
-        <v>260</v>
-      </c>
-      <c r="K29" s="166"/>
-      <c r="L29" s="166" t="s">
-        <v>260</v>
-      </c>
-      <c r="M29" s="166"/>
-      <c r="N29" s="166" t="s">
-        <v>266</v>
-      </c>
-      <c r="O29" s="166" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q29" s="166"/>
-      <c r="R29" s="166"/>
-      <c r="S29" s="166"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="167" t="s">
+        <v>259</v>
+      </c>
+      <c r="K29" s="167"/>
+      <c r="L29" s="167" t="s">
+        <v>259</v>
+      </c>
+      <c r="M29" s="167"/>
+      <c r="N29" s="167" t="s">
+        <v>265</v>
+      </c>
+      <c r="O29" s="167" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q29" s="167"/>
+      <c r="R29" s="167"/>
+      <c r="S29" s="167"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="177" t="s">
-        <v>223</v>
+      <c r="A30" s="178" t="s">
+        <v>222</v>
       </c>
       <c r="B30" s="155" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="C30" s="155" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D30" s="155" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E30" s="155" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F30" s="155" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H30" s="155" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I30" s="155"/>
       <c r="J30" s="155" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K30" s="155" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L30" s="155" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M30" s="155" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N30" s="155" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O30" s="155" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q30" s="148" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R30" s="148" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S30" s="148" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="162" t="s">
-        <v>237</v>
-      </c>
-      <c r="B31" s="175"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="175"/>
-      <c r="H31" s="175"/>
-      <c r="I31" s="175"/>
-      <c r="Q31" s="163"/>
-      <c r="R31" s="163"/>
-      <c r="S31" s="163"/>
+      <c r="A31" s="163" t="s">
+        <v>236</v>
+      </c>
+      <c r="B31" s="176"/>
+      <c r="C31" s="176"/>
+      <c r="D31" s="176"/>
+      <c r="E31" s="176"/>
+      <c r="F31" s="176"/>
+      <c r="H31" s="176"/>
+      <c r="I31" s="176"/>
+      <c r="Q31" s="164"/>
+      <c r="R31" s="164"/>
+      <c r="S31" s="164"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="164" t="s">
+      <c r="A32" s="165" t="s">
         <v>156</v>
       </c>
       <c r="B32" s="107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C32" s="107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D32" s="107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E32" s="107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F32" s="107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H32" s="107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I32" s="107"/>
       <c r="J32" s="155" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K32" s="155" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L32" s="155" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M32" s="155" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N32" s="155" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O32" s="155" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q32" s="107" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R32" s="107" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S32" s="107" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="165" t="s">
+      <c r="A33" s="166" t="s">
         <v>170</v>
       </c>
       <c r="B33" s="48">
@@ -13914,7 +13714,7 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="165" t="s">
+      <c r="A34" s="166" t="s">
         <v>171</v>
       </c>
       <c r="B34" s="48" t="s">
@@ -13965,7 +13765,7 @@
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" s="165" t="s">
+      <c r="A35" s="166" t="s">
         <v>172</v>
       </c>
       <c r="B35" s="48" t="s">
@@ -14016,157 +13816,157 @@
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A36" s="165" t="s">
-        <v>244</v>
-      </c>
-      <c r="D36" s="166" t="s">
-        <v>294</v>
-      </c>
-      <c r="E36" s="166" t="s">
-        <v>260</v>
-      </c>
-      <c r="F36" s="166"/>
-      <c r="H36" s="166" t="s">
-        <v>291</v>
-      </c>
-      <c r="I36" s="166"/>
-      <c r="J36" s="166" t="s">
-        <v>260</v>
-      </c>
-      <c r="K36" s="166"/>
-      <c r="L36" s="166" t="s">
-        <v>260</v>
-      </c>
-      <c r="M36" s="166"/>
-      <c r="N36" s="166" t="s">
-        <v>265</v>
-      </c>
-      <c r="O36" s="166" t="s">
-        <v>253</v>
+      <c r="A36" s="166" t="s">
+        <v>243</v>
+      </c>
+      <c r="D36" s="167" t="s">
+        <v>293</v>
+      </c>
+      <c r="E36" s="167" t="s">
+        <v>259</v>
+      </c>
+      <c r="F36" s="167"/>
+      <c r="H36" s="167" t="s">
+        <v>290</v>
+      </c>
+      <c r="I36" s="167"/>
+      <c r="J36" s="167" t="s">
+        <v>259</v>
+      </c>
+      <c r="K36" s="167"/>
+      <c r="L36" s="167" t="s">
+        <v>259</v>
+      </c>
+      <c r="M36" s="167"/>
+      <c r="N36" s="167" t="s">
+        <v>264</v>
+      </c>
+      <c r="O36" s="167" t="s">
+        <v>252</v>
       </c>
       <c r="Q36" s="155"/>
       <c r="R36" s="155"/>
       <c r="S36" s="155"/>
     </row>
     <row r="37" spans="1:22" ht="30" x14ac:dyDescent="0.2">
-      <c r="A37" s="177" t="s">
-        <v>223</v>
-      </c>
-      <c r="B37" s="176" t="s">
-        <v>300</v>
-      </c>
-      <c r="C37" s="176" t="s">
-        <v>300</v>
-      </c>
-      <c r="D37" s="176" t="s">
-        <v>300</v>
-      </c>
-      <c r="E37" s="176" t="s">
-        <v>300</v>
-      </c>
-      <c r="F37" s="176" t="s">
-        <v>300</v>
+      <c r="A37" s="178" t="s">
+        <v>222</v>
+      </c>
+      <c r="B37" s="177" t="s">
+        <v>299</v>
+      </c>
+      <c r="C37" s="177" t="s">
+        <v>299</v>
+      </c>
+      <c r="D37" s="177" t="s">
+        <v>299</v>
+      </c>
+      <c r="E37" s="177" t="s">
+        <v>299</v>
+      </c>
+      <c r="F37" s="177" t="s">
+        <v>299</v>
       </c>
       <c r="H37" s="155" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I37" s="155"/>
       <c r="J37" s="155" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K37" s="155" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L37" s="155" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M37" s="155" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N37" s="155" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O37" s="155" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q37" s="155" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R37" s="155" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S37" s="155" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="162" t="s">
-        <v>238</v>
-      </c>
-      <c r="B38" s="175"/>
-      <c r="C38" s="175"/>
-      <c r="D38" s="175"/>
-      <c r="E38" s="175"/>
-      <c r="F38" s="175"/>
-      <c r="H38" s="175"/>
-      <c r="I38" s="175"/>
-      <c r="Q38" s="163"/>
-      <c r="R38" s="163"/>
-      <c r="S38" s="163"/>
+      <c r="A38" s="163" t="s">
+        <v>237</v>
+      </c>
+      <c r="B38" s="176"/>
+      <c r="C38" s="176"/>
+      <c r="D38" s="176"/>
+      <c r="E38" s="176"/>
+      <c r="F38" s="176"/>
+      <c r="H38" s="176"/>
+      <c r="I38" s="176"/>
+      <c r="Q38" s="164"/>
+      <c r="R38" s="164"/>
+      <c r="S38" s="164"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="164" t="s">
+      <c r="A39" s="165" t="s">
         <v>156</v>
       </c>
       <c r="B39" s="107" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C39" s="107" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D39" s="107" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E39" s="107" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F39" s="107" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H39" s="107" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I39" s="107"/>
       <c r="J39" s="155" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K39" s="155" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L39" s="155" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M39" s="155" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N39" s="155" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O39" s="155" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q39" s="107" t="s">
+        <v>190</v>
+      </c>
+      <c r="R39" s="107" t="s">
+        <v>190</v>
+      </c>
+      <c r="S39" s="107" t="s">
         <v>191</v>
       </c>
-      <c r="R39" s="107" t="s">
-        <v>191</v>
-      </c>
-      <c r="S39" s="107" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="165" t="s">
+      <c r="A40" s="166" t="s">
         <v>170</v>
       </c>
       <c r="B40" s="156">
@@ -14217,7 +14017,7 @@
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="165" t="s">
+      <c r="A41" s="166" t="s">
         <v>171</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -14268,7 +14068,7 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="165" t="s">
+      <c r="A42" s="166" t="s">
         <v>172</v>
       </c>
       <c r="B42" s="48" t="s">
@@ -14319,8 +14119,8 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A43" s="165" t="s">
-        <v>244</v>
+      <c r="A43" s="166" t="s">
+        <v>243</v>
       </c>
       <c r="B43" s="155"/>
       <c r="C43" s="155"/>
@@ -14328,145 +14128,145 @@
       <c r="E43" s="155"/>
       <c r="F43" s="155"/>
       <c r="H43" s="155"/>
-      <c r="I43" s="166"/>
-      <c r="J43" s="166"/>
-      <c r="K43" s="166"/>
-      <c r="L43" s="166"/>
-      <c r="M43" s="166" t="s">
-        <v>264</v>
-      </c>
-      <c r="N43" s="166" t="s">
-        <v>247</v>
-      </c>
-      <c r="O43" s="166" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q43" s="166"/>
-      <c r="R43" s="166" t="s">
-        <v>249</v>
+      <c r="I43" s="167"/>
+      <c r="J43" s="167"/>
+      <c r="K43" s="167"/>
+      <c r="L43" s="167"/>
+      <c r="M43" s="167" t="s">
+        <v>263</v>
+      </c>
+      <c r="N43" s="167" t="s">
+        <v>246</v>
+      </c>
+      <c r="O43" s="167" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q43" s="167"/>
+      <c r="R43" s="167" t="s">
+        <v>248</v>
       </c>
       <c r="S43" s="155"/>
-      <c r="V43" s="168"/>
+      <c r="V43" s="169"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A44" s="177" t="s">
-        <v>223</v>
+      <c r="A44" s="178" t="s">
+        <v>222</v>
       </c>
       <c r="B44" s="155" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C44" s="155" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D44" s="155" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E44" s="155" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F44" s="155" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H44" s="155" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I44" s="155"/>
       <c r="J44" s="155" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K44" s="155" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L44" s="155" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M44" s="155" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N44" s="155" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O44" s="155" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q44" s="155" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R44" s="155" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S44" s="155" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="162" t="s">
-        <v>239</v>
-      </c>
-      <c r="B45" s="175"/>
-      <c r="C45" s="175"/>
-      <c r="D45" s="175"/>
-      <c r="E45" s="175"/>
-      <c r="F45" s="175"/>
-      <c r="H45" s="175"/>
-      <c r="I45" s="175"/>
-      <c r="Q45" s="163"/>
-      <c r="R45" s="163"/>
-      <c r="S45" s="163"/>
+      <c r="A45" s="163" t="s">
+        <v>238</v>
+      </c>
+      <c r="B45" s="176"/>
+      <c r="C45" s="176"/>
+      <c r="D45" s="176"/>
+      <c r="E45" s="176"/>
+      <c r="F45" s="176"/>
+      <c r="H45" s="176"/>
+      <c r="I45" s="176"/>
+      <c r="Q45" s="164"/>
+      <c r="R45" s="164"/>
+      <c r="S45" s="164"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="164" t="s">
+      <c r="A46" s="165" t="s">
         <v>156</v>
       </c>
       <c r="B46" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C46" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D46" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E46" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F46" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H46" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I46" s="148"/>
       <c r="J46" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K46" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L46" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M46" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N46" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O46" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q46" s="107" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R46" s="107" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S46" s="107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="165" t="s">
+      <c r="A47" s="166" t="s">
         <v>170</v>
       </c>
       <c r="B47" s="13">
@@ -14532,7 +14332,7 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="165" t="s">
+      <c r="A48" s="166" t="s">
         <v>171</v>
       </c>
       <c r="B48" s="155" t="s">
@@ -14583,7 +14383,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A49" s="165" t="s">
+      <c r="A49" s="166" t="s">
         <v>172</v>
       </c>
       <c r="B49" s="155" t="s">
@@ -14634,75 +14434,75 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" s="165" t="s">
-        <v>244</v>
-      </c>
-      <c r="B50" s="166"/>
-      <c r="C50" s="166"/>
-      <c r="D50" s="166"/>
-      <c r="E50" s="166"/>
-      <c r="F50" s="166"/>
-      <c r="H50" s="166"/>
-      <c r="I50" s="166"/>
-      <c r="J50" s="166"/>
-      <c r="K50" s="166"/>
-      <c r="L50" s="166"/>
-      <c r="M50" s="166"/>
-      <c r="N50" s="166"/>
-      <c r="O50" s="166"/>
+      <c r="A50" s="166" t="s">
+        <v>243</v>
+      </c>
+      <c r="B50" s="167"/>
+      <c r="C50" s="167"/>
+      <c r="D50" s="167"/>
+      <c r="E50" s="167"/>
+      <c r="F50" s="167"/>
+      <c r="H50" s="167"/>
+      <c r="I50" s="167"/>
+      <c r="J50" s="167"/>
+      <c r="K50" s="167"/>
+      <c r="L50" s="167"/>
+      <c r="M50" s="167"/>
+      <c r="N50" s="167"/>
+      <c r="O50" s="167"/>
       <c r="Q50" s="155"/>
       <c r="R50" s="155"/>
-      <c r="S50" s="166"/>
+      <c r="S50" s="167"/>
     </row>
     <row r="51" spans="1:19" ht="30" x14ac:dyDescent="0.2">
-      <c r="A51" s="177" t="s">
-        <v>223</v>
-      </c>
-      <c r="B51" s="176" t="s">
-        <v>313</v>
-      </c>
-      <c r="C51" s="176" t="s">
-        <v>313</v>
-      </c>
-      <c r="D51" s="176" t="s">
-        <v>313</v>
-      </c>
-      <c r="E51" s="176" t="s">
-        <v>313</v>
-      </c>
-      <c r="F51" s="176" t="s">
-        <v>313</v>
+      <c r="A51" s="178" t="s">
+        <v>222</v>
+      </c>
+      <c r="B51" s="177" t="s">
+        <v>312</v>
+      </c>
+      <c r="C51" s="177" t="s">
+        <v>312</v>
+      </c>
+      <c r="D51" s="177" t="s">
+        <v>312</v>
+      </c>
+      <c r="E51" s="177" t="s">
+        <v>312</v>
+      </c>
+      <c r="F51" s="177" t="s">
+        <v>312</v>
       </c>
       <c r="H51" s="148" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I51" s="148"/>
       <c r="J51" s="148" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K51" s="148" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L51" s="148" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M51" s="148" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N51" s="148" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O51" s="148" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q51" s="155" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R51" s="155" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S51" s="155" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -14719,7 +14519,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14793,7 +14593,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
@@ -14994,7 +14794,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15015,14 +14815,14 @@
         <v>126</v>
       </c>
       <c r="B2" s="87" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="186" t="s">
         <v>319</v>
       </c>
     </row>
@@ -15033,319 +14833,477 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.5" style="93" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.375" style="93" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="93" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.875" style="127" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="93" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="93" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="93" customWidth="1"/>
-    <col min="9" max="9" width="19.625" style="93" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="93" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.25" style="93" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="93"/>
+    <col min="1" max="1" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.375" style="87" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="87" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="87" customWidth="1"/>
+    <col min="5" max="5" width="9" style="87"/>
+    <col min="6" max="6" width="11.625" style="87" customWidth="1"/>
+    <col min="7" max="7" width="19.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="87" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="87" customWidth="1"/>
+    <col min="10" max="12" width="9" style="87"/>
+    <col min="13" max="13" width="33.25" style="87" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="20"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="107" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="160" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="155" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="154" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="108" t="s">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="B3" s="48">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="108" t="s">
-        <v>128</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="154" t="s">
+        <v>205</v>
       </c>
       <c r="B4" s="48" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="154" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="155"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="154" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="155"/>
+    </row>
+    <row r="7" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="151" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="151" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="152" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="152" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="152" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="152" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="152" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="153" t="s">
+        <v>170</v>
+      </c>
+      <c r="I7" s="153" t="s">
+        <v>171</v>
+      </c>
+      <c r="J7" s="153" t="s">
+        <v>172</v>
+      </c>
+      <c r="K7" s="153" t="s">
+        <v>197</v>
+      </c>
+      <c r="L7" s="153" t="s">
+        <v>207</v>
+      </c>
+      <c r="M7" s="153" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="154" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="155" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="155" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" s="152"/>
+      <c r="F8" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="145" t="s">
+        <v>338</v>
+      </c>
+      <c r="H8" s="156">
+        <v>1E-3</v>
+      </c>
+      <c r="I8" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="193" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="154" t="s">
+        <v>209</v>
+      </c>
+      <c r="L8" s="153"/>
+      <c r="M8" s="154" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="154" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" s="154" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="155" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="155" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" s="48"/>
+      <c r="F9" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" s="145" t="s">
+        <v>338</v>
+      </c>
+      <c r="H9" s="156">
+        <v>1E-3</v>
+      </c>
+      <c r="I9" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="154" t="s">
+        <v>209</v>
+      </c>
+      <c r="L9" s="48"/>
+      <c r="M9" s="154" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="154" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="154" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="155" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="155" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" s="48"/>
+      <c r="F10" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="145" t="s">
+        <v>338</v>
+      </c>
+      <c r="H10" s="156">
+        <v>1E-3</v>
+      </c>
+      <c r="I10" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="154" t="s">
+        <v>209</v>
+      </c>
+      <c r="L10" s="48"/>
+      <c r="M10" s="154" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="154" t="s">
+        <v>323</v>
+      </c>
+      <c r="B11" s="154" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="155" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="155" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="152"/>
+      <c r="F11" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="158" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="158"/>
+      <c r="I11" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="193" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="154" t="s">
+        <v>209</v>
+      </c>
+      <c r="L11" s="153"/>
+      <c r="M11" s="154" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="154" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12" s="154" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="155" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="155" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" s="48"/>
+      <c r="F12" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="158" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="158"/>
+      <c r="I12" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="154" t="s">
+        <v>209</v>
+      </c>
+      <c r="L12" s="48"/>
+      <c r="M12" s="154" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="154" t="s">
+        <v>326</v>
+      </c>
+      <c r="B13" s="154" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="155" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="155" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="48"/>
+      <c r="F13" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="158" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="158"/>
+      <c r="I13" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="154" t="s">
+        <v>209</v>
+      </c>
+      <c r="L13" s="48"/>
+      <c r="M13" s="154" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="154" t="s">
+        <v>328</v>
+      </c>
+      <c r="B14" s="154" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14" s="155" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="155" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" s="152"/>
+      <c r="F14" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="145" t="s">
+        <v>338</v>
+      </c>
+      <c r="H14" s="145"/>
+      <c r="I14" s="157" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="108" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="48" t="s">
+      <c r="J14" s="193" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="154" t="s">
+        <v>209</v>
+      </c>
+      <c r="L14" s="153"/>
+      <c r="M14" s="154" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="194" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="154" t="s">
+        <v>330</v>
+      </c>
+      <c r="B15" s="154" t="s">
+        <v>320</v>
+      </c>
+      <c r="C15" s="155" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="155" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" s="48"/>
+      <c r="F15" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="145" t="s">
+        <v>338</v>
+      </c>
+      <c r="H15" s="145"/>
+      <c r="I15" s="157" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="154" t="s">
+        <v>209</v>
+      </c>
+      <c r="L15" s="155" t="s">
+        <v>210</v>
+      </c>
+      <c r="M15" s="154" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="141" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="154" t="s">
+        <v>332</v>
+      </c>
+      <c r="B16" s="154" t="s">
+        <v>321</v>
+      </c>
+      <c r="C16" s="155" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="155" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" s="48"/>
+      <c r="F16" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="145" t="s">
+        <v>338</v>
+      </c>
+      <c r="H16" s="145"/>
+      <c r="I16" s="157" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="193" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="154" t="s">
+        <v>209</v>
+      </c>
+      <c r="L16" s="153"/>
+      <c r="M16" s="154" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="141" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="159" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="154" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="155" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="108" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="48">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="109" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" s="13"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="109" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="13"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="109" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="145" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="146" t="s">
-        <v>164</v>
-      </c>
-      <c r="B12" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="127" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="146" t="s">
-        <v>169</v>
-      </c>
-      <c r="B13" s="107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="127" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="146" t="s">
-        <v>177</v>
-      </c>
-      <c r="B14" s="107">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="105" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" s="105" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="H15" s="110" t="s">
-        <v>145</v>
-      </c>
-      <c r="I15" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="J15" s="147" t="s">
-        <v>170</v>
-      </c>
-      <c r="K15" s="147" t="s">
-        <v>171</v>
-      </c>
-      <c r="L15" s="147" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="106" t="s">
-        <v>193</v>
-      </c>
-      <c r="B16" s="106" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="107" t="s">
+      <c r="D17" s="155" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" s="152"/>
+      <c r="F17" s="155" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="107" t="s">
-        <v>184</v>
-      </c>
-      <c r="E16" s="107" t="s">
-        <v>185</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="H16" s="13">
-        <v>50000</v>
-      </c>
-      <c r="I16" s="111" t="s">
-        <v>335</v>
-      </c>
-      <c r="J16" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="K16" s="148" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="148" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="106" t="s">
-        <v>329</v>
-      </c>
-      <c r="B17" s="106" t="s">
-        <v>203</v>
-      </c>
-      <c r="C17" s="107" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="107" t="s">
-        <v>184</v>
-      </c>
-      <c r="E17" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="H17" s="13">
-        <v>100</v>
-      </c>
-      <c r="I17" s="150" t="s">
-        <v>109</v>
-      </c>
-      <c r="J17" s="150"/>
-      <c r="K17" s="148" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="148" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="106" t="s">
-        <v>323</v>
-      </c>
-      <c r="B18" s="106" t="s">
-        <v>321</v>
-      </c>
-      <c r="C18" s="107" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="107" t="s">
-        <v>184</v>
-      </c>
-      <c r="E18" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="I18" s="111" t="s">
-        <v>335</v>
-      </c>
-      <c r="J18" s="111"/>
-      <c r="K18" s="148" t="s">
-        <v>80</v>
-      </c>
-      <c r="L18" s="148" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="B19" s="106" t="s">
-        <v>187</v>
-      </c>
-      <c r="C19" s="107" t="s">
-        <v>188</v>
-      </c>
-      <c r="D19" s="107" t="s">
-        <v>179</v>
-      </c>
-      <c r="E19" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="H19" s="13">
-        <v>500000000</v>
-      </c>
-      <c r="I19" s="111" t="s">
-        <v>335</v>
-      </c>
-      <c r="J19" s="13">
+      <c r="G17" s="145" t="s">
+        <v>338</v>
+      </c>
+      <c r="H17" s="48">
         <f>0.000000001</f>
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="K19" s="148" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="148" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C25" s="128"/>
+      <c r="I17" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="193" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="154" t="s">
+        <v>209</v>
+      </c>
+      <c r="L17" s="153"/>
+      <c r="M17" s="159" t="s">
+        <v>185</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15357,7 +15315,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15399,8 +15357,8 @@
         <f>76800000000</f>
         <v>76800000000</v>
       </c>
-      <c r="C2" s="189">
-        <v>3.595022937357871E-7</v>
+      <c r="C2" s="191">
+        <v>3.5950229373578699E-7</v>
       </c>
       <c r="D2" s="107">
         <v>1.2759</v>
@@ -15430,7 +15388,7 @@
   </sheetPr>
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -15484,10 +15442,10 @@
         <v>64</v>
       </c>
       <c r="T1" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="U1" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -15606,7 +15564,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B5" s="13">
         <v>2.0000000000000002E-5</v>
@@ -15666,7 +15624,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -16156,7 +16114,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B2" s="13">
         <v>130.19999999999999</v>
@@ -16213,9 +16171,7 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16224,7 +16180,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="89" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -16282,7 +16238,7 @@
       <c r="A5" s="88">
         <v>20</v>
       </c>
-      <c r="B5" s="185">
+      <c r="B5" s="187">
         <v>12000</v>
       </c>
       <c r="C5">
@@ -16302,7 +16258,7 @@
       <c r="A6" s="88">
         <v>39</v>
       </c>
-      <c r="B6" s="172">
+      <c r="B6" s="173">
         <v>12000</v>
       </c>
       <c r="C6">
@@ -16322,7 +16278,7 @@
       <c r="A7" s="88">
         <v>40</v>
       </c>
-      <c r="B7" s="185">
+      <c r="B7" s="187">
         <v>12000</v>
       </c>
       <c r="E7">
@@ -16346,8 +16302,8 @@
   <dimension ref="A1:Y103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E2" sqref="E2"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16452,7 +16408,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B2" s="59">
         <v>39</v>
@@ -16463,8 +16419,8 @@
       <c r="D2" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="173" t="s">
-        <v>184</v>
+      <c r="E2" s="174" t="s">
+        <v>183</v>
       </c>
       <c r="F2" s="59">
         <v>0</v>
@@ -16472,8 +16428,8 @@
       <c r="G2" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="187" t="s">
-        <v>320</v>
+      <c r="H2" s="192" t="s">
+        <v>322</v>
       </c>
       <c r="I2" s="62"/>
       <c r="K2" s="59">
@@ -17678,8 +17634,8 @@
   </sheetPr>
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17705,7 +17661,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="87" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
